--- a/16年暑期课表.xlsx
+++ b/16年暑期课表.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="214">
   <si>
     <t>需要教室数</t>
   </si>
@@ -4878,7 +4878,7 @@
   <dimension ref="A1:Z257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14198,10 +14198,10 @@
       <c r="A129" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="219" t="s">
-        <v>193</v>
-      </c>
-      <c r="C129" s="50"/>
+      <c r="B129" s="219"/>
+      <c r="C129" s="50">
+        <v>111</v>
+      </c>
       <c r="D129" s="184" t="s">
         <v>201</v>
       </c>
@@ -19056,7 +19056,7 @@
       <c r="A199" s="89"/>
       <c r="B199" s="32">
         <f>196-COUNTIF(B2:B198,"")-COUNTIF(B2:B198," ")-COUNTIF(B2:B198,"  ")-COUNTIF(B2:B198,B192)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C199" s="32">
         <f t="shared" ref="C199:L199" si="6">196-COUNTIF(C2:C198,"")-COUNTIF(C2:C198," ")-COUNTIF(C2:C198,"  ")-COUNTIF(C2:C198,C192)</f>
@@ -19100,7 +19100,7 @@
       </c>
       <c r="M199" s="47">
         <f>SUM(B199:L199)</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O199" t="str">
         <f t="shared" ca="1" si="5"/>

--- a/16年暑期课表.xlsx
+++ b/16年暑期课表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="90" windowWidth="20730" windowHeight="11670"/>
+    <workbookView xWindow="16875" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="14" r:id="rId1"/>
@@ -12,19 +12,22 @@
     <sheet name="课表自动生成 (4)" sheetId="21" r:id="rId3"/>
     <sheet name="6月" sheetId="13" r:id="rId4"/>
     <sheet name="temp" sheetId="7" r:id="rId5"/>
-    <sheet name="课表自动生成 (2)" sheetId="22" r:id="rId6"/>
+    <sheet name="林辰庄月英" sheetId="22" r:id="rId6"/>
     <sheet name="王昊" sheetId="23" r:id="rId7"/>
-    <sheet name="课表自动生成 (3)" sheetId="24" r:id="rId8"/>
+    <sheet name="吕良泽" sheetId="25" r:id="rId8"/>
+    <sheet name="课表自动生成 (3)" sheetId="24" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">temp!$D$1:$D$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">课表自动生成!$D$1:$D$1048347</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'课表自动生成 (2)'!$D$1:$D$1048347</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'课表自动生成 (3)'!$D$1:$D$1048347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'课表自动生成 (3)'!$D$1:$D$1048347</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'课表自动生成 (4)'!$D$1:$D$1048344</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">林辰庄月英!$D$1:$D$1048347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">吕良泽!$D$1:$D$1048347</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">王昊!$D$1:$D$1048347</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="216">
   <si>
     <t>需要教室数</t>
   </si>
@@ -831,6 +834,14 @@
   </si>
   <si>
     <t>刘佳华数学一对一</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕良泽数学一对一</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕良泽</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -3008,9 +3019,6 @@
     <xf numFmtId="0" fontId="11" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3043,6 +3051,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3267,7 +3278,7 @@
     <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="174">
+  <dxfs count="176">
     <dxf>
       <font>
         <b val="0"/>
@@ -3883,6 +3894,20 @@
           <bgColor indexed="60"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4875,10 +4900,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z257"/>
+  <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4965,7 +4990,7 @@
       <c r="N2" s="45"/>
       <c r="O2" s="46" t="str">
         <f>课表自动生成!L2</f>
-        <v>吴超</v>
+        <v>吕良泽</v>
       </c>
       <c r="P2" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$2"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$2"),5),2),"")</f>
@@ -6179,7 +6204,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="P19" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$19"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$19"),5),2),"")</f>
@@ -6191,7 +6216,7 @@
       </c>
       <c r="R19" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$19"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$19"),5),2),"")</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="S19" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$19"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$19"),5),2),"")</f>
@@ -6251,11 +6276,11 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P20" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$20"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$20"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q20" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$20"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$20"),5),2),"")</f>
@@ -10816,11 +10841,11 @@
       </c>
       <c r="O83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P83" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$83"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$83"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q83" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$83"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$83"),5),2),"")</f>
@@ -11603,15 +11628,13 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="40.5">
+    <row r="94" spans="1:26">
       <c r="A94" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="90"/>
-      <c r="D94" s="101" t="s">
-        <v>74</v>
-      </c>
+      <c r="D94" s="130"/>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
       <c r="G94" s="146"/>
@@ -11622,7 +11645,7 @@
       <c r="L94" s="35"/>
       <c r="M94" s="47">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11747,15 +11770,15 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="27">
+    <row r="96" spans="1:26" ht="40.5">
       <c r="A96" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="219" t="s">
-        <v>193</v>
-      </c>
+      <c r="B96" s="98"/>
       <c r="C96" s="59"/>
-      <c r="D96" s="156"/>
+      <c r="D96" s="101" t="s">
+        <v>74</v>
+      </c>
       <c r="E96" s="217" t="s">
         <v>188</v>
       </c>
@@ -11823,16 +11846,14 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="27">
+    <row r="97" spans="1:26">
       <c r="A97" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B97" s="55"/>
       <c r="C97" s="57"/>
       <c r="D97" s="19"/>
-      <c r="E97" s="219" t="s">
-        <v>194</v>
-      </c>
+      <c r="E97" s="98"/>
       <c r="F97" s="35"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
@@ -11842,7 +11863,7 @@
       <c r="L97" s="35"/>
       <c r="M97" s="47">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12145,11 +12166,11 @@
       </c>
       <c r="O101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P101" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$101"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$101"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q101" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$101"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$101"),5),2),"")</f>
@@ -12206,7 +12227,7 @@
       <c r="E102" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="F102" s="235" t="s">
+      <c r="F102" s="234" t="s">
         <v>95</v>
       </c>
       <c r="G102" s="146"/>
@@ -12277,7 +12298,7 @@
       </c>
       <c r="C103" s="153"/>
       <c r="D103" s="151"/>
-      <c r="E103" s="236" t="s">
+      <c r="E103" s="235" t="s">
         <v>188</v>
       </c>
       <c r="F103" s="151"/>
@@ -12342,9 +12363,12 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="27">
       <c r="A104" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B104" s="240" t="s">
+        <v>214</v>
       </c>
       <c r="C104" s="153"/>
       <c r="D104" s="151"/>
@@ -12358,15 +12382,15 @@
       <c r="L104" s="35"/>
       <c r="M104" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P104" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$104"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$104"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q104" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$104"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$104"),5),2),"")</f>
@@ -12410,9 +12434,7 @@
       </c>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="A105" s="20"/>
       <c r="B105" s="225"/>
       <c r="C105" s="194"/>
       <c r="D105" s="139"/>
@@ -12660,11 +12682,11 @@
       </c>
       <c r="O108" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P108" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$108"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$108"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q108" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$108"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$108"),5),2),"")</f>
@@ -12720,7 +12742,7 @@
         <v>102</v>
       </c>
       <c r="F109" s="151"/>
-      <c r="G109" s="237" t="s">
+      <c r="G109" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H109" s="185"/>
@@ -12789,7 +12811,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="153"/>
-      <c r="D110" s="237" t="s">
+      <c r="D110" s="236" t="s">
         <v>195</v>
       </c>
       <c r="E110" s="191"/>
@@ -12857,10 +12879,10 @@
       <c r="A111" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B111" s="229"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="153"/>
       <c r="D111" s="153"/>
-      <c r="E111" s="238" t="s">
+      <c r="E111" s="237" t="s">
         <v>194</v>
       </c>
       <c r="F111" s="185"/>
@@ -13080,11 +13102,13 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="27">
       <c r="A114" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B114" s="230"/>
+      <c r="B114" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C114" s="163"/>
       <c r="D114" s="146"/>
       <c r="E114" s="146"/>
@@ -13097,15 +13121,15 @@
       <c r="L114" s="35"/>
       <c r="M114" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P114" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$114"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$114"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q114" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$114"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$114"),5),2),"")</f>
@@ -13152,16 +13176,16 @@
       <c r="A115" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B115" s="231"/>
+      <c r="B115" s="230"/>
       <c r="C115" s="163"/>
       <c r="D115" s="164"/>
       <c r="E115" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="F115" s="235" t="s">
+      <c r="F115" s="234" t="s">
         <v>95</v>
       </c>
-      <c r="G115" s="237" t="s">
+      <c r="G115" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H115" s="185"/>
@@ -13226,12 +13250,12 @@
       <c r="A116" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="232"/>
+      <c r="B116" s="231"/>
       <c r="C116" s="153"/>
-      <c r="D116" s="237" t="s">
+      <c r="D116" s="236" t="s">
         <v>195</v>
       </c>
-      <c r="E116" s="236" t="s">
+      <c r="E116" s="235" t="s">
         <v>188</v>
       </c>
       <c r="F116" s="205"/>
@@ -13300,7 +13324,7 @@
       <c r="A117" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="233"/>
+      <c r="B117" s="232"/>
       <c r="C117" s="153"/>
       <c r="D117" s="153"/>
       <c r="E117" s="213" t="s">
@@ -13461,7 +13485,7 @@
       <c r="A119" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="234" t="s">
+      <c r="B119" s="233" t="s">
         <v>59</v>
       </c>
       <c r="C119" s="146"/>
@@ -13607,7 +13631,7 @@
         <v>91</v>
       </c>
       <c r="C121" s="59"/>
-      <c r="D121" s="237" t="s">
+      <c r="D121" s="236" t="s">
         <v>195</v>
       </c>
       <c r="E121" s="146" t="s">
@@ -13690,7 +13714,7 @@
       <c r="F122" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G122" s="237" t="s">
+      <c r="G122" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H122" s="19"/>
@@ -13776,11 +13800,11 @@
       </c>
       <c r="O123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P123" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$123"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$123"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q123" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$123"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$123"),5),2),"")</f>
@@ -14052,7 +14076,9 @@
       <c r="A127" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="156"/>
+      <c r="B127" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C127" s="37"/>
       <c r="D127" s="156"/>
       <c r="E127" s="201" t="s">
@@ -14067,15 +14093,15 @@
       <c r="L127" s="35"/>
       <c r="M127" s="47">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O127" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P127" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$127"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$127"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q127" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$127"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$127"),5),2),"")</f>
@@ -14122,9 +14148,11 @@
       <c r="A128" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B128" s="195"/>
+      <c r="B128" s="195" t="s">
+        <v>158</v>
+      </c>
       <c r="C128" s="71"/>
-      <c r="D128" s="237" t="s">
+      <c r="D128" s="236" t="s">
         <v>195</v>
       </c>
       <c r="E128" s="146" t="s">
@@ -14143,7 +14171,7 @@
       <c r="L128" s="35"/>
       <c r="M128" s="47">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O128" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14198,20 +14226,20 @@
       <c r="A129" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="219"/>
-      <c r="C129" s="50">
-        <v>111</v>
-      </c>
+      <c r="B129" s="219" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="50"/>
       <c r="D129" s="184" t="s">
         <v>201</v>
       </c>
-      <c r="E129" s="236" t="s">
+      <c r="E129" s="235" t="s">
         <v>188</v>
       </c>
       <c r="F129" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G129" s="237" t="s">
+      <c r="G129" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H129" s="190"/>
@@ -14279,7 +14307,7 @@
       <c r="B130" s="60"/>
       <c r="C130" s="98"/>
       <c r="D130" s="151"/>
-      <c r="E130" s="238" t="s">
+      <c r="E130" s="237" t="s">
         <v>194</v>
       </c>
       <c r="F130" s="185"/>
@@ -14447,11 +14475,11 @@
         <v>12</v>
       </c>
       <c r="M132" s="47">
-        <f t="shared" ref="M132:M198" si="4">MOD(11-COUNTIF(B132:L132,""),11)</f>
+        <f t="shared" ref="M132:M199" si="4">MOD(11-COUNTIF(B132:L132,""),11)</f>
         <v>0</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" ref="O132:O202" ca="1" si="5">P132&amp;Q132&amp;R132&amp;S132&amp;T132&amp;U132&amp;V132&amp;W132&amp;X132&amp;Y132&amp;Z132</f>
+        <f t="shared" ref="O132:O203" ca="1" si="5">P132&amp;Q132&amp;R132&amp;S132&amp;T132&amp;U132&amp;V132&amp;W132&amp;X132&amp;Y132&amp;Z132</f>
         <v/>
       </c>
       <c r="P132" s="17" t="str">
@@ -14567,11 +14595,13 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="27">
       <c r="A134" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="156"/>
+      <c r="B134" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C134" s="35"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -14584,15 +14614,15 @@
       <c r="L134" s="35"/>
       <c r="M134" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P134" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$134"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$134"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q134" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$134"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$134"),5),2),"")</f>
@@ -15040,11 +15070,13 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="27">
       <c r="A141" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="89"/>
+      <c r="B141" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C141" s="146"/>
       <c r="D141" s="146"/>
       <c r="E141" s="146"/>
@@ -15057,7 +15089,7 @@
       <c r="L141" s="151"/>
       <c r="M141" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="str">
         <f t="shared" si="5"/>
@@ -15169,11 +15201,11 @@
       </c>
       <c r="O143" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P143" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$141"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$141"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q143" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$141"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$141"),5),2),"")</f>
@@ -15396,11 +15428,11 @@
       </c>
       <c r="O146" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P146" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$144"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$144"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q146" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$144"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$144"),5),2),"")</f>
@@ -15515,7 +15547,7 @@
       <c r="A148" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B148" s="35"/>
+      <c r="B148" s="55"/>
       <c r="C148" s="35"/>
       <c r="D148" s="60"/>
       <c r="E148" s="25"/>
@@ -15588,7 +15620,7 @@
       <c r="D149" s="35"/>
       <c r="E149" s="60"/>
       <c r="F149" s="25"/>
-      <c r="G149" s="237" t="s">
+      <c r="G149" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H149" s="19"/>
@@ -15660,7 +15692,7 @@
         <v>188</v>
       </c>
       <c r="F150" s="35"/>
-      <c r="G150" s="237" t="s">
+      <c r="G150" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H150" s="30"/>
@@ -15884,7 +15916,7 @@
       <c r="A153" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="35"/>
+      <c r="B153" s="55"/>
       <c r="C153" s="59"/>
       <c r="D153" s="20"/>
       <c r="E153" s="59"/>
@@ -15952,7 +15984,9 @@
       <c r="A154" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B154" s="64"/>
+      <c r="B154" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C154" s="59"/>
       <c r="D154" s="59"/>
       <c r="E154" s="201" t="s">
@@ -15961,7 +15995,7 @@
       <c r="F154" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="G154" s="237" t="s">
+      <c r="G154" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H154" s="19"/>
@@ -15971,7 +16005,7 @@
       <c r="L154" s="35"/>
       <c r="M154" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O154" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -16026,12 +16060,12 @@
       <c r="A155" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B155" s="98"/>
+      <c r="B155" s="55"/>
       <c r="C155" s="35"/>
       <c r="D155" s="25"/>
       <c r="E155" s="98"/>
       <c r="F155" s="74"/>
-      <c r="G155" s="237" t="s">
+      <c r="G155" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H155" s="24"/>
@@ -16113,11 +16147,11 @@
       </c>
       <c r="O156" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P156" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$154"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$154"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q156" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$154"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$154"),5),2),"")</f>
@@ -16397,7 +16431,7 @@
         <v>91</v>
       </c>
       <c r="C160" s="19"/>
-      <c r="D160" s="237" t="s">
+      <c r="D160" s="236" t="s">
         <v>195</v>
       </c>
       <c r="E160" s="146" t="s">
@@ -16480,7 +16514,7 @@
       <c r="F161" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G161" s="237" t="s">
+      <c r="G161" s="236" t="s">
         <v>196</v>
       </c>
       <c r="H161" s="19"/>
@@ -16632,11 +16666,11 @@
       </c>
       <c r="O163" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P163" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$161"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$161"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q163" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$161"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$161"),5),2),"")</f>
@@ -16798,7 +16832,7 @@
       <c r="A166" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="146"/>
+      <c r="B166" s="55"/>
       <c r="C166" s="146"/>
       <c r="D166" s="146"/>
       <c r="E166" s="146"/>
@@ -17096,9 +17130,7 @@
         <v>184</v>
       </c>
       <c r="F171" s="35"/>
-      <c r="G171" s="237" t="s">
-        <v>196</v>
-      </c>
+      <c r="G171" s="35"/>
       <c r="H171" s="24"/>
       <c r="I171" s="19"/>
       <c r="J171" s="19"/>
@@ -17106,7 +17138,7 @@
       <c r="L171" s="35"/>
       <c r="M171" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O171" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -17165,10 +17197,10 @@
         <v>193</v>
       </c>
       <c r="C172" s="71"/>
-      <c r="D172" s="237" t="s">
+      <c r="D172" s="236" t="s">
         <v>195</v>
       </c>
-      <c r="E172" s="240" t="s">
+      <c r="E172" s="239" t="s">
         <v>189</v>
       </c>
       <c r="F172" s="105" t="s">
@@ -17242,17 +17274,19 @@
       <c r="B173" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="E173" s="238" t="s">
+      <c r="E173" s="237" t="s">
         <v>194</v>
       </c>
       <c r="F173" s="139"/>
-      <c r="G173" s="191"/>
+      <c r="G173" s="236" t="s">
+        <v>196</v>
+      </c>
       <c r="H173" s="139"/>
       <c r="I173" s="139"/>
       <c r="J173" s="139"/>
       <c r="M173" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O173" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -17428,7 +17462,7 @@
         <v>71</v>
       </c>
       <c r="C176" s="37"/>
-      <c r="D176" s="239"/>
+      <c r="D176" s="238"/>
       <c r="E176" s="181" t="s">
         <v>189</v>
       </c>
@@ -17500,7 +17534,7 @@
         <v>91</v>
       </c>
       <c r="C177" s="71"/>
-      <c r="D177" s="230"/>
+      <c r="D177" s="229"/>
       <c r="E177" s="146" t="s">
         <v>184</v>
       </c>
@@ -17572,10 +17606,12 @@
       <c r="A178" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B178" s="35"/>
+      <c r="B178" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C178" s="50"/>
-      <c r="D178" s="231"/>
-      <c r="E178" s="236" t="s">
+      <c r="D178" s="230"/>
+      <c r="E178" s="235" t="s">
         <v>188</v>
       </c>
       <c r="F178" s="139"/>
@@ -17589,7 +17625,7 @@
       <c r="L178" s="35"/>
       <c r="M178" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O178" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -17660,11 +17696,11 @@
       </c>
       <c r="O179" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P179" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$173"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$173"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q179" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$173"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$173"),5),2),"")</f>
@@ -18035,11 +18071,11 @@
       </c>
       <c r="O184" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P184" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$178"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$178"),5),2),"")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="Q184" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$178"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$178"),5),2),"")</f>
@@ -18086,7 +18122,9 @@
       <c r="A185" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="98"/>
+      <c r="B185" s="240" t="s">
+        <v>214</v>
+      </c>
       <c r="C185" s="35"/>
       <c r="D185" s="191"/>
       <c r="E185" s="217" t="s">
@@ -18103,7 +18141,7 @@
       <c r="L185" s="35"/>
       <c r="M185" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -18378,98 +18416,43 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="40.5">
+    <row r="189" spans="1:26" ht="27">
       <c r="A189" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B189" s="181" t="s">
-        <v>91</v>
-      </c>
-      <c r="C189" s="19"/>
-      <c r="D189" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="E189" s="74"/>
-      <c r="F189" s="218" t="s">
-        <v>95</v>
-      </c>
-      <c r="G189" s="237" t="s">
-        <v>196</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="35"/>
-      <c r="M189" s="47">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O189" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P189" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$B$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Q189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="R189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="S189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="T189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="U189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="V189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="W189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="X189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Y189" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$183"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Z189" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$183"),5),2),"")</f>
-        <v/>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B189" s="240" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" s="146"/>
+      <c r="D189" s="89"/>
+      <c r="E189" s="146"/>
+      <c r="F189" s="89"/>
+      <c r="G189" s="146"/>
+      <c r="H189" s="146"/>
+      <c r="I189" s="146"/>
+      <c r="J189" s="146"/>
+      <c r="K189" s="146"/>
+      <c r="L189" s="151"/>
+      <c r="M189" s="47"/>
     </row>
     <row r="190" spans="1:26" ht="40.5">
       <c r="A190" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" s="101" t="s">
-        <v>71</v>
+        <v>186</v>
+      </c>
+      <c r="B190" s="181" t="s">
+        <v>91</v>
       </c>
       <c r="C190" s="19"/>
-      <c r="D190" s="237" t="s">
-        <v>195</v>
-      </c>
-      <c r="E190" s="181" t="s">
-        <v>189</v>
-      </c>
-      <c r="F190" s="29"/>
-      <c r="G190" s="19"/>
+      <c r="D190" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E190" s="74"/>
+      <c r="F190" s="218" t="s">
+        <v>95</v>
+      </c>
+      <c r="G190" s="236" t="s">
+        <v>196</v>
+      </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
@@ -18477,245 +18460,251 @@
       <c r="L190" s="35"/>
       <c r="M190" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O190" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P190" s="17" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$B$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Q190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="R190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="S190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="T190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="U190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="V190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="W190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="X190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Y190" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$183"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Z190" s="18" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$183"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$183"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:26" ht="40.5">
+      <c r="A191" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="19"/>
+      <c r="D191" s="236" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="F191" s="29"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="35"/>
+      <c r="M191" s="47">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O191" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="P191" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$184"),5),2),"")</f>
-        <v>数学</v>
-      </c>
-      <c r="Q190" s="16" t="str">
+        <v/>
+      </c>
+      <c r="Q191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="R190" s="16" t="str">
+      <c r="R191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="S190" s="16" t="str">
+      <c r="S191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="T190" s="16" t="str">
+      <c r="T191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$F$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="U190" s="16" t="str">
+      <c r="U191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$G$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="V190" s="16" t="str">
+      <c r="V191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$H$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="W190" s="16" t="str">
+      <c r="W191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$I$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="X190" s="16" t="str">
+      <c r="X191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$J$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Y190" s="16" t="str">
+      <c r="Y191" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$K$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$184"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Z190" s="18" t="str">
+      <c r="Z191" s="18" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$L$184"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$184"),5),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="27">
-      <c r="A191" s="20" t="s">
+    <row r="192" spans="1:26" ht="27">
+      <c r="A192" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B191" s="195" t="s">
+      <c r="B192" s="195" t="s">
         <v>158</v>
       </c>
-      <c r="C191" s="146"/>
-      <c r="D191" s="191"/>
-      <c r="E191" s="166"/>
-      <c r="F191" s="205"/>
-      <c r="G191" s="146"/>
-      <c r="H191" s="146"/>
-      <c r="I191" s="146"/>
-      <c r="J191" s="146"/>
-      <c r="K191" s="146"/>
-      <c r="L191" s="151"/>
-      <c r="M191" s="47"/>
-    </row>
-    <row r="192" spans="1:26">
-      <c r="A192" s="31">
+      <c r="C192" s="146"/>
+      <c r="D192" s="191"/>
+      <c r="E192" s="181"/>
+      <c r="F192" s="205"/>
+      <c r="G192" s="146"/>
+      <c r="H192" s="146"/>
+      <c r="I192" s="146"/>
+      <c r="J192" s="146"/>
+      <c r="K192" s="146"/>
+      <c r="L192" s="151"/>
+      <c r="M192" s="47"/>
+    </row>
+    <row r="193" spans="1:26">
+      <c r="A193" s="31">
         <f>A188+1</f>
         <v>42582</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B193" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C192" s="19" t="s">
+      <c r="C193" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D192" s="19" t="s">
+      <c r="D193" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E192" s="19" t="s">
+      <c r="E193" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F192" s="19" t="s">
+      <c r="F193" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G192" s="19" t="s">
+      <c r="G193" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H192" s="19" t="s">
+      <c r="H193" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I192" s="19" t="s">
+      <c r="I193" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J192" s="19" t="s">
+      <c r="J193" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K192" s="19" t="s">
+      <c r="K193" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L192" s="35" t="s">
+      <c r="L193" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="M192" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O192" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P192" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$B$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Q192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="R192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="S192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="T192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="U192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="V192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="W192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="X192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Y192" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$185"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Z192" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$185"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:26">
-      <c r="A193" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="35"/>
       <c r="M193" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O193" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P193" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$B$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$186"),5),2),"")</f>
-        <v/>
+        <f ca="1">IF(COUNTIF(INDIRECT("$B$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$185"),5),2),"")</f>
+        <v>数学</v>
       </c>
       <c r="Q193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="R193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="S193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="T193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="U193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="V193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="W193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="X193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y193" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$185"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z193" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$186"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$185"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$185"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:26">
-      <c r="A194" s="20" t="s">
-        <v>14</v>
+      <c r="A194" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="B194" s="19"/>
-      <c r="C194" s="29"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
-      <c r="G194" s="24"/>
+      <c r="G194" s="19"/>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
@@ -18730,64 +18719,60 @@
         <v/>
       </c>
       <c r="P194" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$B$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$B$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="R194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="S194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="T194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="U194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="V194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="W194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="X194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y194" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$187"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$186"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z194" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$187"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:26" ht="27">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$186"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$186"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:26">
       <c r="A195" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B195" s="35"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="237" t="s">
-        <v>195</v>
-      </c>
-      <c r="E195" s="201" t="s">
-        <v>102</v>
-      </c>
-      <c r="F195" s="35"/>
-      <c r="G195" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="B195" s="19"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="24"/>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
@@ -18795,71 +18780,71 @@
       <c r="L195" s="35"/>
       <c r="M195" s="47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O195" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P195" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$B$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$B$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="R195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="S195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="T195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="U195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="V195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="W195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="X195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y195" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$187"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z195" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$188"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$187"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$187"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:26" ht="27">
       <c r="A196" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B196" s="98"/>
+        <v>186</v>
+      </c>
+      <c r="B196" s="35"/>
       <c r="C196" s="19"/>
-      <c r="D196" s="191"/>
-      <c r="E196" s="217" t="s">
-        <v>188</v>
-      </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="237" t="s">
-        <v>196</v>
-      </c>
+      <c r="D196" s="236" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="201" t="s">
+        <v>102</v>
+      </c>
+      <c r="F196" s="35"/>
+      <c r="G196" s="35"/>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
@@ -18874,60 +18859,64 @@
         <v/>
       </c>
       <c r="P196" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$B$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="R196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="S196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="T196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="U196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="V196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="W196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="X196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y196" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$189"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$188"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z196" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$189"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:26">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$188"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$188"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:26" ht="27">
       <c r="A197" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B197" s="35"/>
-      <c r="C197" s="35"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="98"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="B197" s="98"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="191"/>
+      <c r="E197" s="217" t="s">
+        <v>188</v>
+      </c>
+      <c r="F197" s="19"/>
+      <c r="G197" s="236" t="s">
+        <v>196</v>
+      </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
@@ -18935,66 +18924,68 @@
       <c r="L197" s="35"/>
       <c r="M197" s="47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O197" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="P197" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$190"),5),2),"")</f>
-        <v/>
+        <f ca="1">IF(COUNTIF(INDIRECT("B189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$189"),5),2),"")</f>
+        <v>数学</v>
       </c>
       <c r="Q197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="R197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="S197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="T197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="U197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="V197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="W197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="X197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y197" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$189"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z197" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$190"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$189"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$189"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:26">
-      <c r="A198" s="20"/>
-      <c r="B198" s="50"/>
-      <c r="C198" s="19"/>
+      <c r="A198" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="35"/>
+      <c r="C198" s="35"/>
       <c r="D198" s="19"/>
-      <c r="E198" s="41"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="26"/>
+      <c r="E198" s="98"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="19"/>
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
@@ -19005,203 +18996,215 @@
       </c>
       <c r="O198" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P198" s="17" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("B190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Q198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="R198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="S198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="T198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="U198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="V198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="W198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="X198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Y198" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$190"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Z198" s="18" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$190"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$190"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:26">
+      <c r="A199" s="20"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="26"/>
+      <c r="I199" s="19"/>
+      <c r="J199" s="19"/>
+      <c r="K199" s="19"/>
+      <c r="L199" s="35"/>
+      <c r="M199" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O199" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="P199" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("B191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$191"),5),2),"")</f>
-        <v>数学</v>
-      </c>
-      <c r="Q198" s="16" t="str">
+        <v/>
+      </c>
+      <c r="Q199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="R198" s="16" t="str">
+      <c r="R199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="S198" s="16" t="str">
+      <c r="S199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="T198" s="16" t="str">
+      <c r="T199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$F$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="U198" s="16" t="str">
+      <c r="U199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$G$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="V198" s="16" t="str">
+      <c r="V199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$H$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="W198" s="16" t="str">
+      <c r="W199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$I$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="X198" s="16" t="str">
+      <c r="X199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$J$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Y198" s="16" t="str">
+      <c r="Y199" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$K$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$191"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Z198" s="18" t="str">
+      <c r="Z199" s="18" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$L$191"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$191"),5),2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:26">
-      <c r="A199" s="89"/>
-      <c r="B199" s="32">
-        <f>196-COUNTIF(B2:B198,"")-COUNTIF(B2:B198," ")-COUNTIF(B2:B198,"  ")-COUNTIF(B2:B198,B192)</f>
-        <v>45</v>
-      </c>
-      <c r="C199" s="32">
-        <f t="shared" ref="C199:L199" si="6">196-COUNTIF(C2:C198,"")-COUNTIF(C2:C198," ")-COUNTIF(C2:C198,"  ")-COUNTIF(C2:C198,C192)</f>
-        <v>2</v>
-      </c>
-      <c r="D199" s="32">
+    <row r="200" spans="1:26">
+      <c r="A200" s="89"/>
+      <c r="B200" s="32">
+        <f>196-COUNTIF(B2:B199,"")-COUNTIF(B2:B199," ")-COUNTIF(B2:B199,"  ")-COUNTIF(B2:B199,B193)</f>
+        <v>54</v>
+      </c>
+      <c r="C200" s="32">
+        <f t="shared" ref="C200:L200" si="6">196-COUNTIF(C2:C199,"")-COUNTIF(C2:C199," ")-COUNTIF(C2:C199,"  ")-COUNTIF(C2:C199,C193)</f>
+        <v>0</v>
+      </c>
+      <c r="D200" s="32">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="E200" s="32">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="F200" s="32">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="E199" s="32">
+      <c r="G200" s="32">
         <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="F199" s="32">
+        <v>33</v>
+      </c>
+      <c r="H200" s="32">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="G199" s="32">
+        <v>-2</v>
+      </c>
+      <c r="I200" s="32">
         <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="H199" s="32">
+        <v>-2</v>
+      </c>
+      <c r="J200" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I199" s="32">
+        <v>-2</v>
+      </c>
+      <c r="K200" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J199" s="32">
+        <v>-2</v>
+      </c>
+      <c r="L200" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K199" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L199" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M199" s="47">
-        <f>SUM(B199:L199)</f>
-        <v>182</v>
-      </c>
-      <c r="O199" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="P199" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Q199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="R199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="S199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="T199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="U199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="V199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="W199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="X199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Y199" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$192"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Z199" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$192"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:26">
-      <c r="A200" s="89"/>
-      <c r="B200" s="54"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
+        <v>-2</v>
+      </c>
+      <c r="M200" s="47">
+        <f>SUM(B200:L200)</f>
+        <v>173</v>
+      </c>
       <c r="O200" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P200" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="R200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="S200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="T200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="U200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="V200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="W200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="X200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y200" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$192"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z200" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$193"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$192"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$192"),5),2),"")</f>
         <v/>
       </c>
     </row>
@@ -19215,251 +19218,236 @@
         <v/>
       </c>
       <c r="P201" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="R201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="S201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="T201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="U201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="V201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="W201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="X201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y201" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$193"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z201" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$194"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$193"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$193"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:26">
-      <c r="A202" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B202" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C202" s="54" t="s">
-        <v>37</v>
-      </c>
+      <c r="A202" s="89"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="54"/>
       <c r="D202" s="54"/>
       <c r="O202" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="P202" s="17" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("B194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Q202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="R202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="S202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="T202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="U202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="V202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="W202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="X202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Y202" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$194"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Z202" s="18" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$194"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$194"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:26">
+      <c r="A203" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B203" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C203" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" s="54"/>
+      <c r="O203" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="P203" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("B195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Q202" s="16" t="str">
+      <c r="Q203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="R202" s="16" t="str">
+      <c r="R203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="S202" s="16" t="str">
+      <c r="S203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="T202" s="16" t="str">
+      <c r="T203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$F$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="U202" s="16" t="str">
+      <c r="U203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$G$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="V202" s="16" t="str">
+      <c r="V203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$H$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="W202" s="16" t="str">
+      <c r="W203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$I$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="X202" s="16" t="str">
+      <c r="X203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$J$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Y202" s="16" t="str">
+      <c r="Y203" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$K$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$195"),5),2),"")</f>
         <v/>
       </c>
-      <c r="Z202" s="18" t="str">
+      <c r="Z203" s="18" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$L$195"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$195"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:26">
-      <c r="A203" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B203" s="54">
-        <f t="shared" ref="B203:B234" si="7">COUNTIF(B$1:L$198,A203)</f>
-        <v>0</v>
-      </c>
-      <c r="C203" s="54">
-        <v>225</v>
-      </c>
-      <c r="D203" s="54">
-        <f t="shared" ref="D203:D255" si="8">B203*C203</f>
-        <v>0</v>
-      </c>
-      <c r="E203" s="54"/>
-      <c r="F203" s="15">
-        <f>B203-E203</f>
-        <v>0</v>
-      </c>
-      <c r="O203" t="str">
-        <f t="shared" ref="O203" ca="1" si="9">P203&amp;Q203&amp;R203&amp;S203&amp;T203&amp;U203&amp;V203&amp;W203&amp;X203&amp;Y203&amp;Z203</f>
-        <v/>
-      </c>
-      <c r="P203" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Q203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="R203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="S203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="T203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="U203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="V203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="W203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="X203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Y203" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$196"),5),2),"")</f>
-        <v/>
-      </c>
-      <c r="Z203" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$196"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:26">
       <c r="A204" s="69" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B204" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B204:B235" si="7">COUNTIF(B$1:L$199,A204)</f>
         <v>0</v>
       </c>
       <c r="C204" s="54">
         <v>225</v>
       </c>
       <c r="D204" s="54">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D204:D256" si="8">B204*C204</f>
         <v>0</v>
       </c>
       <c r="E204" s="54"/>
       <c r="F204" s="15">
-        <f t="shared" ref="F204:F250" si="10">B204-E204</f>
+        <f>B204-E204</f>
         <v>0</v>
       </c>
       <c r="O204" t="str">
-        <f ca="1">P204&amp;Q204&amp;R204&amp;S204&amp;T204&amp;U204&amp;V204&amp;W204&amp;X204&amp;Y204&amp;Z204</f>
+        <f t="shared" ref="O204" ca="1" si="9">P204&amp;Q204&amp;R204&amp;S204&amp;T204&amp;U204&amp;V204&amp;W204&amp;X204&amp;Y204&amp;Z204</f>
         <v/>
       </c>
       <c r="P204" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="R204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="S204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="T204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="U204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="V204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="W204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="X204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y204" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$196"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z204" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$197"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$196"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$196"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:26">
-      <c r="A205" s="88" t="s">
-        <v>73</v>
+      <c r="A205" s="69" t="s">
+        <v>69</v>
       </c>
       <c r="B205" s="54">
         <f t="shared" si="7"/>
@@ -19474,7 +19462,7 @@
       </c>
       <c r="E205" s="54"/>
       <c r="F205" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F205:F251" si="10">B205-E205</f>
         <v>0</v>
       </c>
       <c r="O205" t="str">
@@ -19482,281 +19470,329 @@
         <v/>
       </c>
       <c r="P205" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="R205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="S205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="T205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="U205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="V205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="W205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="X205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y205" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$198"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$197"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z205" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$198"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:26" ht="27">
-      <c r="A206" s="23" t="s">
-        <v>72</v>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$197"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$197"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:26">
+      <c r="A206" s="88" t="s">
+        <v>73</v>
       </c>
       <c r="B206" s="54">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C206" s="54">
         <v>225</v>
       </c>
       <c r="D206" s="54">
         <f t="shared" si="8"/>
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E206" s="54"/>
       <c r="F206" s="15">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O206" t="str">
         <f ca="1">P206&amp;Q206&amp;R206&amp;S206&amp;T206&amp;U206&amp;V206&amp;W206&amp;X206&amp;Y206&amp;Z206</f>
         <v/>
       </c>
       <c r="P206" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="R206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="S206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="T206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="U206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="V206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="W206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="X206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y206" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$198"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z206" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$199"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$198"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$198"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:26" ht="27">
       <c r="A207" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B207" s="54">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" s="54">
         <v>225</v>
       </c>
       <c r="D207" s="54">
         <f t="shared" si="8"/>
-        <v>2475</v>
+        <v>2250</v>
       </c>
       <c r="E207" s="54"/>
       <c r="F207" s="15">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O207" t="str">
         <f ca="1">P207&amp;Q207&amp;R207&amp;S207&amp;T207&amp;U207&amp;V207&amp;W207&amp;X207&amp;Y207&amp;Z207</f>
         <v/>
       </c>
       <c r="P207" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="R207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="S207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="T207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="U207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="V207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="W207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="X207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y207" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$199"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z207" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$200"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$199"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$199"),5),2),"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:26" ht="27">
       <c r="A208" s="23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B208" s="54">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C208" s="54">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D208" s="54">
         <f t="shared" si="8"/>
-        <v>1808</v>
+        <v>2475</v>
       </c>
       <c r="E208" s="54"/>
       <c r="F208" s="15">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O208" t="str">
         <f ca="1">P208&amp;Q208&amp;R208&amp;S208&amp;T208&amp;U208&amp;V208&amp;W208&amp;X208&amp;Y208&amp;Z208</f>
         <v/>
       </c>
       <c r="P208" s="17" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("B201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("B200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="Q208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$C$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="R208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$D$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="S208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$E$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="T208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$F$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="U208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$G$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="V208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$H$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="W208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$I$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="X208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$J$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="Y208" s="16" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$K$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$201"),5),2),"")</f>
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$200"),5),2),"")</f>
         <v/>
       </c>
       <c r="Z208" s="18" t="str">
-        <f ca="1">IF(COUNTIF(INDIRECT("$L$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$201"),5),2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="22" t="s">
-        <v>22</v>
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$200"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$200"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:26" ht="27">
+      <c r="A209" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="B209" s="54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C209" s="54">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D209" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="E209" s="54"/>
       <c r="F209" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="91" t="s">
-        <v>83</v>
+        <v>8</v>
+      </c>
+      <c r="O209" t="str">
+        <f ca="1">P209&amp;Q209&amp;R209&amp;S209&amp;T209&amp;U209&amp;V209&amp;W209&amp;X209&amp;Y209&amp;Z209</f>
+        <v/>
+      </c>
+      <c r="P209" s="17" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("B201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Q209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$C$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="R209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$D$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="S209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$E$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="T209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$F$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$F$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="U209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$G$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$G$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="V209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$H$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$H$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="W209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$I$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$I$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="X209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$J$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$J$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Y209" s="16" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$K$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$K$201"),5),2),"")</f>
+        <v/>
+      </c>
+      <c r="Z209" s="18" t="str">
+        <f ca="1">IF(COUNTIF(INDIRECT("$L$201"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$L$201"),5),2),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:26">
+      <c r="A210" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="B210" s="54">
         <f t="shared" si="7"/>
@@ -19775,9 +19811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="92" t="s">
-        <v>85</v>
+    <row r="211" spans="1:26">
+      <c r="A211" s="91" t="s">
+        <v>83</v>
       </c>
       <c r="B211" s="54">
         <f t="shared" si="7"/>
@@ -19796,9 +19832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:26">
       <c r="A212" s="92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B212" s="54">
         <f t="shared" si="7"/>
@@ -19817,58 +19853,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="81" t="s">
-        <v>27</v>
+    <row r="213" spans="1:26">
+      <c r="A213" s="92" t="s">
+        <v>89</v>
       </c>
       <c r="B213" s="54">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C213" s="54">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D213" s="54">
         <f t="shared" si="8"/>
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="E213" s="54"/>
       <c r="F213" s="15">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="82" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26">
+      <c r="A214" s="81" t="s">
+        <v>27</v>
       </c>
       <c r="B214" s="54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C214" s="54">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D214" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="E214" s="54"/>
       <c r="F214" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="83" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26">
+      <c r="A215" s="82" t="s">
+        <v>25</v>
       </c>
       <c r="B215" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C215" s="54">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D215" s="54">
         <f t="shared" si="8"/>
@@ -19880,9 +19916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:26">
       <c r="A216" s="83" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B216" s="54">
         <f t="shared" si="7"/>
@@ -19901,9 +19937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:26">
       <c r="A217" s="83" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B217" s="54">
         <f t="shared" si="7"/>
@@ -19922,9 +19958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:26">
       <c r="A218" s="83" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B218" s="54">
         <f t="shared" si="7"/>
@@ -19943,9 +19979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:26">
       <c r="A219" s="83" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B219" s="54">
         <f t="shared" si="7"/>
@@ -19964,16 +20000,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="63" t="s">
-        <v>84</v>
+    <row r="220" spans="1:26">
+      <c r="A220" s="83" t="s">
+        <v>24</v>
       </c>
       <c r="B220" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C220" s="54">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D220" s="54">
         <f t="shared" si="8"/>
@@ -19985,16 +20021,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="85" t="s">
-        <v>76</v>
+    <row r="221" spans="1:26">
+      <c r="A221" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="B221" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C221" s="54">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="D221" s="54">
         <f t="shared" si="8"/>
@@ -20006,16 +20042,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:26">
       <c r="A222" s="85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B222" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C222" s="54">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D222" s="54">
         <f t="shared" si="8"/>
@@ -20027,16 +20063,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:26">
       <c r="A223" s="85" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B223" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C223" s="54">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D223" s="54">
         <f t="shared" si="8"/>
@@ -20048,16 +20084,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="72" t="s">
-        <v>63</v>
+    <row r="224" spans="1:26">
+      <c r="A224" s="85" t="s">
+        <v>65</v>
       </c>
       <c r="B224" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C224" s="54">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="D224" s="54">
         <f t="shared" si="8"/>
@@ -20071,7 +20107,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="72" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B225" s="54">
         <f t="shared" si="7"/>
@@ -20091,8 +20127,8 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="87" t="s">
-        <v>64</v>
+      <c r="A226" s="72" t="s">
+        <v>68</v>
       </c>
       <c r="B226" s="54">
         <f t="shared" si="7"/>
@@ -20112,50 +20148,50 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="84" t="s">
-        <v>31</v>
+      <c r="A227" s="87" t="s">
+        <v>64</v>
       </c>
       <c r="B227" s="54">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" s="54">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D227" s="54">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E227" s="54"/>
       <c r="F227" s="15">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B228" s="54">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" s="54">
         <v>200</v>
       </c>
       <c r="D228" s="54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E228" s="54"/>
       <c r="F228" s="15">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="21" t="s">
-        <v>26</v>
+      <c r="A229" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="B229" s="54">
         <f t="shared" si="7"/>
@@ -20176,7 +20212,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="21" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B230" s="54">
         <f t="shared" si="7"/>
@@ -20197,7 +20233,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="21" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B231" s="54">
         <f t="shared" si="7"/>
@@ -20217,8 +20253,8 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="68" t="s">
-        <v>67</v>
+      <c r="A232" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="B232" s="54">
         <f t="shared" si="7"/>
@@ -20239,14 +20275,14 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="68" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B233" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C233" s="54">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D233" s="54">
         <f t="shared" si="8"/>
@@ -20259,15 +20295,15 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="19" t="s">
-        <v>34</v>
+      <c r="A234" s="68" t="s">
+        <v>78</v>
       </c>
       <c r="B234" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C234" s="54">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D234" s="54">
         <f t="shared" si="8"/>
@@ -20280,11 +20316,11 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="56" t="s">
-        <v>29</v>
+      <c r="A235" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B235" s="54">
-        <f t="shared" ref="B235:B255" si="11">COUNTIF(B$1:L$198,A235)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C235" s="54">
@@ -20302,14 +20338,14 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B236" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B236:B256" si="11">COUNTIF(B$1:L$199,A236)</f>
         <v>0</v>
       </c>
       <c r="C236" s="54">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D236" s="54">
         <f t="shared" si="8"/>
@@ -20322,15 +20358,15 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="86" t="s">
-        <v>75</v>
+      <c r="A237" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="B237" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C237" s="54">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="D237" s="54">
         <f t="shared" si="8"/>
@@ -20343,15 +20379,15 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="67" t="s">
-        <v>56</v>
+      <c r="A238" s="86" t="s">
+        <v>75</v>
       </c>
       <c r="B238" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C238" s="54">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="D238" s="54">
         <f t="shared" si="8"/>
@@ -20364,15 +20400,15 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="58" t="s">
-        <v>55</v>
+      <c r="A239" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="B239" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C239" s="54">
-        <v>255</v>
+        <v>360</v>
       </c>
       <c r="D239" s="54">
         <f t="shared" si="8"/>
@@ -20385,15 +20421,15 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="93" t="s">
-        <v>88</v>
+      <c r="A240" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="B240" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C240" s="54">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="D240" s="54">
         <f t="shared" si="8"/>
@@ -20406,15 +20442,15 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="61" t="s">
-        <v>54</v>
+      <c r="A241" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="B241" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C241" s="54">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D241" s="54">
         <f t="shared" si="8"/>
@@ -20428,14 +20464,14 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B242" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C242" s="54">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D242" s="54">
         <f t="shared" si="8"/>
@@ -20449,7 +20485,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B243" s="54">
         <f t="shared" si="11"/>
@@ -20470,7 +20506,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="61" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B244" s="54">
         <f t="shared" si="11"/>
@@ -20491,14 +20527,14 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="61" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B245" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C245" s="54">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D245" s="54">
         <f t="shared" si="8"/>
@@ -20511,15 +20547,15 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="66" t="s">
-        <v>61</v>
+      <c r="A246" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="B246" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C246" s="54">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="D246" s="54">
         <f t="shared" si="8"/>
@@ -20533,7 +20569,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B247" s="54">
         <f t="shared" si="11"/>
@@ -20554,14 +20590,14 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B248" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C248" s="54">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="D248" s="54">
         <f t="shared" si="8"/>
@@ -20574,15 +20610,15 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="73" t="s">
-        <v>70</v>
+      <c r="A249" s="66" t="s">
+        <v>60</v>
       </c>
       <c r="B249" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C249" s="54">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D249" s="54">
         <f t="shared" si="8"/>
@@ -20595,15 +20631,15 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="91" t="s">
-        <v>83</v>
+      <c r="A250" s="73" t="s">
+        <v>70</v>
       </c>
       <c r="B250" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C250" s="54">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D250" s="54">
         <f t="shared" si="8"/>
@@ -20616,8 +20652,8 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="58" t="s">
-        <v>87</v>
+      <c r="A251" s="91" t="s">
+        <v>83</v>
       </c>
       <c r="B251" s="54">
         <f t="shared" si="11"/>
@@ -20630,17 +20666,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="E251" s="54"/>
+      <c r="F251" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="58" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B252" s="54">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C252" s="54">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D252" s="54">
         <f t="shared" si="8"/>
@@ -20648,8 +20689,8 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="65" t="s">
-        <v>33</v>
+      <c r="A253" s="58" t="s">
+        <v>51</v>
       </c>
       <c r="B253" s="54">
         <f t="shared" si="11"/>
@@ -20664,8 +20705,8 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="94" t="s">
-        <v>23</v>
+      <c r="A254" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="B254" s="54">
         <f t="shared" si="11"/>
@@ -20679,25 +20720,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="27">
-      <c r="A255" s="27" t="s">
-        <v>39</v>
+    <row r="255" spans="1:6">
+      <c r="A255" s="94" t="s">
+        <v>23</v>
       </c>
       <c r="B255" s="54">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" s="54">
         <v>200</v>
       </c>
       <c r="D255" s="54">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="27">
+      <c r="A256" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" s="54">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C256" s="54">
         <v>200</v>
       </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" s="54">
-        <f>SUM(B203:B256)</f>
+      <c r="D256" s="54">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="54">
+        <f>SUM(B204:B257)</f>
         <v>38</v>
       </c>
     </row>
@@ -20718,13 +20775,13 @@
     <protectedRange sqref="C56" name="区域1_19_1_3_2" securityDescriptor=""/>
     <protectedRange sqref="G61:G62" name="区域1_13_2_1_2" securityDescriptor=""/>
     <protectedRange sqref="E56" name="区域1_12_2_1_1_2_2" securityDescriptor=""/>
-    <protectedRange sqref="D21 D32 A253 D39" name="区域1_20_1_1_1_3"/>
-    <protectedRange sqref="E4:E5 E15 E26 G33 C86 C60 C66 A220 B14" name="区域1_2_1_6_1_1_2_4_1_1"/>
+    <protectedRange sqref="D21 D32 A254 D39" name="区域1_20_1_1_1_3"/>
+    <protectedRange sqref="E4:E5 E15 E26 G33 C86 C60 C66 A221 B14" name="区域1_2_1_6_1_1_2_4_1_1"/>
     <protectedRange sqref="E12" name="区域1_2_1_6_1_1_2_4_2_2"/>
     <protectedRange sqref="C21 B7 C27 D34 B35 D77 D84 B54 C63 C69" name="区域1_19_1_3_4_1_3"/>
     <protectedRange sqref="C83" name="区域1_1_1_5_1_2_2" securityDescriptor=""/>
     <protectedRange sqref="C91" name="区域1_1_1_5_1_3_2" securityDescriptor=""/>
-    <protectedRange sqref="C97 A209" name="区域1_1_1_5_1_4_2" securityDescriptor=""/>
+    <protectedRange sqref="C97 A210" name="区域1_1_1_5_1_4_2" securityDescriptor=""/>
     <protectedRange sqref="C6" name="区域1_2_1_6_1_1_2_4_1_2_1_1"/>
     <protectedRange sqref="D130" name="区域1_19_1_3_4"/>
     <protectedRange sqref="C131" name="区域1_1_1_4_1" securityDescriptor=""/>
@@ -20732,7 +20789,7 @@
     <protectedRange sqref="C137 D136" name="区域1_19_1_3_4_2"/>
     <protectedRange sqref="C138" name="区域1_1_1_5_1" securityDescriptor=""/>
     <protectedRange sqref="D177 C183" name="区域1_2_1_6_1_1_2_4_1_2_1_4"/>
-    <protectedRange sqref="B178 D186 C179" name="区域1_19_1_3_4_3"/>
+    <protectedRange sqref="D186 C179" name="区域1_19_1_3_4_3"/>
     <protectedRange sqref="C185" name="区域1_4_2" securityDescriptor=""/>
     <protectedRange sqref="C186" name="区域1_1_1_5_1_1" securityDescriptor=""/>
     <protectedRange sqref="C180" name="区域1_1_1_4_1_1" securityDescriptor=""/>
@@ -20746,343 +20803,351 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="M3:M199">
-    <cfRule type="cellIs" dxfId="173" priority="93" stopIfTrue="1" operator="notBetween">
+  <conditionalFormatting sqref="M3:M200">
+    <cfRule type="cellIs" dxfId="175" priority="95" stopIfTrue="1" operator="notBetween">
       <formula>0</formula>
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 A199:A201 A256:A1048576">
-    <cfRule type="expression" dxfId="172" priority="94" stopIfTrue="1">
+  <conditionalFormatting sqref="A2 A200:A202 A257:A1048576">
+    <cfRule type="expression" dxfId="174" priority="96" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("“六”or“日”",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="97" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A158 A181 A188 A192 A164:A166 A142:A151 A174:A175">
+  <conditionalFormatting sqref="A158 A181 A188 A193 A164:A166 A142:A151 A174:A175">
+    <cfRule type="expression" dxfId="172" priority="93" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A142)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="94" stopIfTrue="1">
+      <formula>"mod（$A:$J，7）=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
     <cfRule type="expression" dxfId="170" priority="91" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A152)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="169" priority="92" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
-    <cfRule type="expression" dxfId="168" priority="89" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A152)))</formula>
+  <conditionalFormatting sqref="A159:A163">
+    <cfRule type="containsText" dxfId="168" priority="87" operator="containsText" text="“六”or“日”">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A159)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="88">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A159:A163">
+  <conditionalFormatting sqref="A153:A155 A157">
     <cfRule type="containsText" dxfId="166" priority="85" operator="containsText" text="“六”or“日”">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A159)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A153)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="165" priority="86">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153:A155 A157">
-    <cfRule type="containsText" dxfId="164" priority="83" operator="containsText" text="“六”or“日”">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A153)))</formula>
+  <conditionalFormatting sqref="A203 A228:A232 A235:A237 A214:A220">
+    <cfRule type="expression" dxfId="164" priority="83" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A203)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="84">
+    <cfRule type="expression" dxfId="163" priority="84" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A202 A227:A231 A234:A236 A213:A219">
-    <cfRule type="expression" dxfId="162" priority="81" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A202)))</formula>
+  <conditionalFormatting sqref="A85:A90 A78:A82 A92:A94 A3:A35 A37:A42 A44:A76 A119:A125 A99:A117">
+    <cfRule type="expression" dxfId="162" priority="79" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="80" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A90 A78:A82 A92:A94 A3:A35 A37:A42 A44:A76 A99:A117 A119:A125">
+  <conditionalFormatting sqref="B50">
     <cfRule type="expression" dxfId="160" priority="77" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",B50)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="159" priority="78" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
+  <conditionalFormatting sqref="A95:A98">
     <cfRule type="expression" dxfId="158" priority="75" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",B50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A95)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="157" priority="76" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95:A98">
+  <conditionalFormatting sqref="B105">
     <cfRule type="expression" dxfId="156" priority="73" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",B105)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="155" priority="74" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="expression" dxfId="154" priority="71" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",B105)))</formula>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="expression" dxfId="154" priority="69" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A84)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="70" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A77">
     <cfRule type="expression" dxfId="152" priority="67" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A84)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A77)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="151" priority="68" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+  <conditionalFormatting sqref="A91">
     <cfRule type="expression" dxfId="150" priority="65" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A91)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="149" priority="66" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="expression" dxfId="148" priority="63" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A91)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="64" stopIfTrue="1">
-      <formula>"mod（$A:$J，7）=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="146" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="81" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("“六”or“日”",B46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="82" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="146" priority="63" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A36)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="64" stopIfTrue="1">
+      <formula>"mod（$A:$J，7）=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
     <cfRule type="expression" dxfId="144" priority="61" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A43)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="143" priority="62" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A126:A129">
     <cfRule type="expression" dxfId="142" priority="59" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A126)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="60" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A126:A129">
+  <conditionalFormatting sqref="A131">
     <cfRule type="expression" dxfId="140" priority="57" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A126)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A131)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
+  <conditionalFormatting sqref="A133:A137">
     <cfRule type="expression" dxfId="138" priority="55" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A131)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A133)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="137" priority="56" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:A137">
+  <conditionalFormatting sqref="A138">
     <cfRule type="expression" dxfId="136" priority="53" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A133)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A138)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="135" priority="54" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
+  <conditionalFormatting sqref="A132">
     <cfRule type="expression" dxfId="134" priority="51" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A132)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="133" priority="52" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
+  <conditionalFormatting sqref="A139">
     <cfRule type="expression" dxfId="132" priority="49" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A132)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A139)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="131" priority="50" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
+  <conditionalFormatting sqref="A176:A179">
     <cfRule type="expression" dxfId="130" priority="47" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A139)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A176)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="48" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A176:A179">
+  <conditionalFormatting sqref="A180">
     <cfRule type="expression" dxfId="128" priority="45" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A176)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A180)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="127" priority="46" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180">
+  <conditionalFormatting sqref="A182:A185">
     <cfRule type="expression" dxfId="126" priority="43" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A182)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="125" priority="44" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182:A185">
+  <conditionalFormatting sqref="A187">
     <cfRule type="expression" dxfId="124" priority="41" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A182)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A187)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="123" priority="42" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
-    <cfRule type="expression" dxfId="122" priority="39" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A187)))</formula>
+  <conditionalFormatting sqref="A194:A197">
+    <cfRule type="expression" dxfId="122" priority="35" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A194)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="36" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A193:A196">
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="120" priority="33" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A193)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A199)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="119" priority="34" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A198">
+  <conditionalFormatting sqref="A170">
     <cfRule type="expression" dxfId="118" priority="31" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A198)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A170)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="117" priority="32" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A170">
-    <cfRule type="expression" dxfId="116" priority="29" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A170)))</formula>
+  <conditionalFormatting sqref="A167:A168">
+    <cfRule type="containsText" dxfId="116" priority="29" operator="containsText" text="“六”or“日”">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A167)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="30">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A168">
+  <conditionalFormatting sqref="A171:A172">
     <cfRule type="containsText" dxfId="114" priority="27" operator="containsText" text="“六”or“日”">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A167)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A171)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="28">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A171:A172">
-    <cfRule type="containsText" dxfId="112" priority="25" operator="containsText" text="“六”or“日”">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A171)))</formula>
+  <conditionalFormatting sqref="A190:A191">
+    <cfRule type="expression" dxfId="112" priority="25" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A190)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="26">
+    <cfRule type="expression" dxfId="111" priority="26" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A189:A190">
+  <conditionalFormatting sqref="A173">
     <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A189)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A173)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="109" priority="24" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A173">
-    <cfRule type="expression" dxfId="108" priority="21" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A173)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="22" stopIfTrue="1">
-      <formula>"mod（$A:$J，7）=0"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="“六”or“日”">
+    <cfRule type="containsText" dxfId="108" priority="19" operator="containsText" text="“六”or“日”">
       <formula>NOT(ISERROR(SEARCH("“六”or“日”",A169)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="18">
+    <cfRule type="expression" dxfId="107" priority="20">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186">
+    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A186)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="18" stopIfTrue="1">
+      <formula>"mod（$A:$J，7）=0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198">
     <cfRule type="expression" dxfId="104" priority="15" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A186)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A198)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="103" priority="16" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A197">
+  <conditionalFormatting sqref="A83">
     <cfRule type="expression" dxfId="102" priority="13" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A197)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A83)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A130">
     <cfRule type="expression" dxfId="100" priority="11" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A130)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="99" priority="12" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130">
+  <conditionalFormatting sqref="A156">
     <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A130)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A156)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
+  <conditionalFormatting sqref="A118">
     <cfRule type="expression" dxfId="96" priority="7" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A156)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A118)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="95" priority="8" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
+  <conditionalFormatting sqref="A140:A141">
     <cfRule type="expression" dxfId="94" priority="5" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A118)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A140)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="6" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A140:A141">
+  <conditionalFormatting sqref="A192">
     <cfRule type="expression" dxfId="92" priority="3" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A140)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A192)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="4" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A191">
+  <conditionalFormatting sqref="A189">
     <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A191)))</formula>
+      <formula>NOT(ISERROR(SEARCH("“六”or“日”",A189)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="2" stopIfTrue="1">
       <formula>"mod（$A:$J，7）=0"</formula>
@@ -21102,7 +21167,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21183,7 +21248,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -21341,7 +21406,7 @@
       </c>
       <c r="H5" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="I5" s="13"/>
       <c r="N5" t="str">
@@ -21403,7 +21468,7 @@
       </c>
       <c r="H6" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I6" s="13"/>
       <c r="N6" t="str">
@@ -22089,11 +22154,11 @@
       </c>
       <c r="G18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S18,temp!$H:$I,2,FALSE)),"",VLOOKUP(S18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T18,temp!$H:$I,2,FALSE)),"",VLOOKUP(T18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I18" s="13"/>
       <c r="N18" t="str">
@@ -22325,7 +22390,7 @@
       </c>
       <c r="D22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P22,temp!$H:$I,2,FALSE)),"",VLOOKUP(P22,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q22,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q22,temp!$H:$I,2,FALSE))</f>
@@ -22337,7 +22402,7 @@
       </c>
       <c r="G22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S22,temp!$H:$I,2,FALSE)),"",VLOOKUP(S22,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="H22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T22,temp!$H:$I,2,FALSE)),"",VLOOKUP(T22,temp!$H:$I,2,FALSE))</f>
@@ -22476,7 +22541,7 @@
       </c>
       <c r="B25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N25,temp!$H:$I,2,FALSE)),"",VLOOKUP(N25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="C25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O25,temp!$H:$I,2,FALSE)),"",VLOOKUP(O25,temp!$H:$I,2,FALSE))</f>
@@ -22484,11 +22549,11 @@
       </c>
       <c r="D25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P25,temp!$H:$I,2,FALSE)),"",VLOOKUP(P25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q25,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="F25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R25,temp!$H:$I,2,FALSE)),"",VLOOKUP(R25,temp!$H:$I,2,FALSE))</f>
@@ -22616,7 +22681,7 @@
       </c>
       <c r="F27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R27,temp!$H:$I,2,FALSE)),"",VLOOKUP(R27,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S27,temp!$H:$I,2,FALSE)),"",VLOOKUP(S27,temp!$H:$I,2,FALSE))</f>
@@ -22728,7 +22793,7 @@
       </c>
       <c r="C29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O29,temp!$H:$I,2,FALSE)),"",VLOOKUP(O29,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="D29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P29,temp!$H:$I,2,FALSE)),"",VLOOKUP(P29,temp!$H:$I,2,FALSE))</f>
@@ -22748,7 +22813,7 @@
       </c>
       <c r="H29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T29,temp!$H:$I,2,FALSE)),"",VLOOKUP(T29,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I29" s="13"/>
       <c r="N29" t="str">
@@ -22901,9 +22966,9 @@
         <f ca="1">IF(ISNA(VLOOKUP(R32,temp!$H:$I,2,FALSE)),"",VLOOKUP(R32,temp!$H:$I,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="10">
         <f ca="1">IF(ISNA(VLOOKUP(S32,temp!$H:$I,2,FALSE)),"",VLOOKUP(S32,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
@@ -22961,7 +23026,7 @@
       </c>
       <c r="F33" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R33,temp!$H:$I,2,FALSE)),"",VLOOKUP(R33,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G33" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S33,temp!$H:$I,2,FALSE)),"",VLOOKUP(S33,temp!$H:$I,2,FALSE))</f>
@@ -23027,11 +23092,11 @@
       </c>
       <c r="G34" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S34,temp!$H:$I,2,FALSE)),"",VLOOKUP(S34,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H34" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T34,temp!$H:$I,2,FALSE)),"",VLOOKUP(T34,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I34" s="13"/>
       <c r="N34" t="str">
@@ -23081,7 +23146,7 @@
       </c>
       <c r="E35" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q35,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q35,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="F35" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R35,temp!$H:$I,2,FALSE)),"",VLOOKUP(R35,temp!$H:$I,2,FALSE))</f>
@@ -23131,7 +23196,7 @@
       </c>
       <c r="B36" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N36,temp!$H:$I,2,FALSE)),"",VLOOKUP(N36,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="C36" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O36,temp!$H:$I,2,FALSE)),"",VLOOKUP(O36,temp!$H:$I,2,FALSE))</f>
@@ -23449,7 +23514,7 @@
       </c>
       <c r="H5" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="I5" s="13"/>
       <c r="N5" t="str">
@@ -23511,7 +23576,7 @@
       </c>
       <c r="H6" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I6" s="13"/>
       <c r="N6" t="str">
@@ -24197,11 +24262,11 @@
       </c>
       <c r="G18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S18,temp!$H:$I,2,FALSE)),"",VLOOKUP(S18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T18,temp!$H:$I,2,FALSE)),"",VLOOKUP(T18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I18" s="13"/>
       <c r="N18" t="str">
@@ -24371,7 +24436,7 @@
       </c>
       <c r="D21" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P21,temp!$H:$I,2,FALSE)),"",VLOOKUP(P21,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E21" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q21,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q21,temp!$H:$I,2,FALSE))</f>
@@ -24383,7 +24448,7 @@
       </c>
       <c r="G21" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S21,temp!$H:$I,2,FALSE)),"",VLOOKUP(S21,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="H21" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T21,temp!$H:$I,2,FALSE)),"",VLOOKUP(T21,temp!$H:$I,2,FALSE))</f>
@@ -24522,7 +24587,7 @@
       </c>
       <c r="B24" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N24,temp!$H:$I,2,FALSE)),"",VLOOKUP(N24,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="C24" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O24,temp!$H:$I,2,FALSE)),"",VLOOKUP(O24,temp!$H:$I,2,FALSE))</f>
@@ -24530,11 +24595,11 @@
       </c>
       <c r="D24" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P24,temp!$H:$I,2,FALSE)),"",VLOOKUP(P24,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E24" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q24,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q24,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="F24" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R24,temp!$H:$I,2,FALSE)),"",VLOOKUP(R24,temp!$H:$I,2,FALSE))</f>
@@ -24711,7 +24776,7 @@
       </c>
       <c r="C27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O27,temp!$H:$I,2,FALSE)),"",VLOOKUP(O27,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="D27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P27,temp!$H:$I,2,FALSE)),"",VLOOKUP(P27,temp!$H:$I,2,FALSE))</f>
@@ -24728,7 +24793,7 @@
       </c>
       <c r="H27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T27,temp!$H:$I,2,FALSE)),"",VLOOKUP(T27,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I27" s="13"/>
       <c r="N27" t="str">
@@ -24877,9 +24942,9 @@
         <v/>
       </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="10" t="str">
+      <c r="G30" s="10">
         <f ca="1">IF(ISNA(VLOOKUP(S30,temp!$H:$I,2,FALSE)),"",VLOOKUP(S30,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H30" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T30,temp!$H:$I,2,FALSE)),"",VLOOKUP(T30,temp!$H:$I,2,FALSE))</f>
@@ -24995,7 +25060,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I32" s="13"/>
       <c r="N32" t="str">
@@ -25194,7 +25259,7 @@
       <c r="N2" s="45"/>
       <c r="O2" s="46" t="str">
         <f>课表自动生成!L2</f>
-        <v>吴超</v>
+        <v>吕良泽</v>
       </c>
       <c r="P2" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$2"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$2"),5),2),"")</f>
@@ -28184,11 +28249,11 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P43" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$43"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$43"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q43" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$43"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$43"),5),2),"")</f>
@@ -28483,11 +28548,11 @@
       </c>
       <c r="O47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P47" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$47"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$47"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q47" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$47"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$47"),5),2),"")</f>
@@ -28998,7 +29063,7 @@
       </c>
       <c r="O54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="P54" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$54"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$54"),5),2),"")</f>
@@ -29010,7 +29075,7 @@
       </c>
       <c r="R54" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$54"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$54"),5),2),"")</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="S54" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$54"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$54"),5),2),"")</f>
@@ -29519,11 +29584,11 @@
       </c>
       <c r="O61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P61" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$61"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$61"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q61" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$61"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$61"),5),2),"")</f>
@@ -29595,7 +29660,7 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="P62" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$62"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$62"),5),2),"")</f>
@@ -29607,7 +29672,7 @@
       </c>
       <c r="R62" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$62"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$62"),5),2),"")</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="S62" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$62"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$62"),5),2),"")</f>
@@ -34385,7 +34450,7 @@
       </c>
       <c r="O128" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="P128" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$128"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$128"),5),2),"")</f>
@@ -34397,7 +34462,7 @@
       </c>
       <c r="R128" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$128"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$128"),5),2),"")</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="S128" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$128"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$128"),5),2),"")</f>
@@ -37069,7 +37134,7 @@
       </c>
       <c r="O165" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="P165" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$165"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$165"),5),2),"")</f>
@@ -37081,7 +37146,7 @@
       </c>
       <c r="R165" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$D$165"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$D$165"),5),2),"")</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="S165" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$E$165"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$E$165"),5),2),"")</f>
@@ -37656,11 +37721,11 @@
       </c>
       <c r="O173" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="P173" s="17" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$B$173"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$B$173"),5),2),"")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="Q173" s="16" t="str">
         <f ca="1">IF(COUNTIF(INDIRECT("$C$173"),"*"&amp;$O$2&amp;"*")=1,LEFT(RIGHT(INDIRECT("$C$173"),5),2),"")</f>
@@ -41111,7 +41176,7 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2" ca="1" si="1">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>吴超</v>
+        <v>吕良泽</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">TEXT(C2,"m月d日")</f>
@@ -41814,7 +41879,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -41834,7 +41899,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>化学</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -41852,7 +41917,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -41872,7 +41937,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -44246,7 +44311,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="87"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E83" t="str">
         <f t="shared" ca="1" si="95"/>
@@ -44266,7 +44331,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" ca="1" si="92"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -44930,7 +44995,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" ref="D101:D129" ca="1" si="114">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E101" t="str">
         <f t="shared" ref="E101" ca="1" si="115">TEXT(C101,"m月d日")</f>
@@ -44950,7 +45015,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" ref="I101:I129" ca="1" si="119">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -45032,7 +45097,7 @@
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>17:00-19:00</v>
+        <v>19:00-21:00</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" ca="1" si="120"/>
@@ -45044,7 +45109,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" ca="1" si="122"/>
@@ -45056,29 +45121,29 @@
       </c>
       <c r="G104" s="1" t="str">
         <f t="shared" ca="1" si="117"/>
-        <v>17:00-19:00</v>
+        <v>19:00-21:00</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4256717:00-19:00</v>
+        <v>4256719:00-21:00</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="1" t="str">
+      <c r="A105" s="1">
         <f t="shared" ca="1" si="111"/>
-        <v>19:00-21:00</v>
+        <v>0</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" ca="1" si="120"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="125"/>
-        <v>42567</v>
+        <v>0</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" ca="1" si="114"/>
@@ -45086,19 +45151,19 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" ca="1" si="122"/>
-        <v>7月16日</v>
+        <v>1月0日</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" ca="1" si="123"/>
         <v>星期六</v>
       </c>
-      <c r="G105" s="1" t="str">
+      <c r="G105" s="1">
         <f t="shared" ca="1" si="117"/>
-        <v>19:00-21:00</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1" t="str">
         <f t="shared" ca="1" si="124"/>
-        <v>4256719:00-21:00</v>
+        <v>00</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" ca="1" si="119"/>
@@ -45196,7 +45261,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E108" t="str">
         <f t="shared" ca="1" si="122"/>
@@ -45216,7 +45281,7 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -45424,7 +45489,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" ca="1" si="122"/>
@@ -45444,7 +45509,7 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -45766,7 +45831,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E123" t="str">
         <f t="shared" ca="1" si="122"/>
@@ -45786,7 +45851,7 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -45918,7 +45983,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" ca="1" si="114"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" ca="1" si="122"/>
@@ -45938,7 +46003,7 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" ca="1" si="119"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -46184,7 +46249,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" ref="E134:E163" ca="1" si="158">TEXT(C134,"m月d日")</f>
@@ -46204,7 +46269,7 @@
       </c>
       <c r="I134" t="str">
         <f t="shared" ca="1" si="155"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -46526,7 +46591,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" ca="1" si="158"/>
@@ -46546,7 +46611,7 @@
       </c>
       <c r="I143" t="str">
         <f t="shared" ca="1" si="155"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -46640,7 +46705,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E146" t="str">
         <f t="shared" ca="1" si="158"/>
@@ -46660,7 +46725,7 @@
       </c>
       <c r="I146" t="str">
         <f t="shared" ca="1" si="155"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -47020,7 +47085,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" ca="1" si="150"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" ca="1" si="158"/>
@@ -47040,7 +47105,7 @@
       </c>
       <c r="I156" t="str">
         <f t="shared" ca="1" si="155"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -47286,7 +47351,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" ref="D163" ca="1" si="163">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E163" t="str">
         <f t="shared" ca="1" si="158"/>
@@ -47306,7 +47371,7 @@
       </c>
       <c r="I163" t="str">
         <f t="shared" ref="I163" ca="1" si="165">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -47894,7 +47959,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" ca="1" si="177"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E179" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -47914,7 +47979,7 @@
       </c>
       <c r="I179" t="str">
         <f t="shared" ca="1" si="182"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -48084,7 +48149,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" ca="1" si="177"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -48104,7 +48169,7 @@
       </c>
       <c r="I184" t="str">
         <f t="shared" ca="1" si="182"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -48262,7 +48327,7 @@
     <row r="189" spans="1:9">
       <c r="A189" s="1" t="str">
         <f t="shared" ca="1" si="174"/>
-        <v>14:00-16:00</v>
+        <v>10:00-12:00</v>
       </c>
       <c r="B189" s="2">
         <f t="shared" ca="1" si="183"/>
@@ -48272,9 +48337,9 @@
         <f t="shared" ca="1" si="188"/>
         <v>42581</v>
       </c>
-      <c r="D189" t="str">
+      <c r="D189">
         <f t="shared" ca="1" si="177"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -48286,21 +48351,21 @@
       </c>
       <c r="G189" s="1" t="str">
         <f t="shared" ca="1" si="180"/>
-        <v>14:00-16:00</v>
+        <v>10:00-12:00</v>
       </c>
       <c r="H189" s="1" t="str">
         <f t="shared" ca="1" si="187"/>
-        <v>4258114:00-16:00</v>
-      </c>
-      <c r="I189" t="str">
+        <v>4258110:00-12:00</v>
+      </c>
+      <c r="I189">
         <f t="shared" ca="1" si="182"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1" t="str">
         <f t="shared" ca="1" si="174"/>
-        <v>16:00-18:00</v>
+        <v>14:00-16:00</v>
       </c>
       <c r="B190" s="2">
         <f t="shared" ca="1" si="183"/>
@@ -48312,7 +48377,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" ca="1" si="177"/>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E190" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -48324,21 +48389,21 @@
       </c>
       <c r="G190" s="1" t="str">
         <f t="shared" ca="1" si="180"/>
-        <v>16:00-18:00</v>
+        <v>14:00-16:00</v>
       </c>
       <c r="H190" s="1" t="str">
         <f t="shared" ca="1" si="187"/>
-        <v>4258116:00-18:00</v>
+        <v>4258114:00-16:00</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" ca="1" si="182"/>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1" t="str">
         <f t="shared" ca="1" si="174"/>
-        <v>19:00-21:00</v>
+        <v>16:00-18:00</v>
       </c>
       <c r="B191" s="2">
         <f t="shared" ca="1" si="183"/>
@@ -48348,9 +48413,9 @@
         <f t="shared" ca="1" si="188"/>
         <v>42581</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="str">
         <f t="shared" ca="1" si="177"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E191" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -48362,63 +48427,63 @@
       </c>
       <c r="G191" s="1" t="str">
         <f t="shared" ca="1" si="180"/>
-        <v>19:00-21:00</v>
+        <v>16:00-18:00</v>
       </c>
       <c r="H191" s="1" t="str">
         <f t="shared" ca="1" si="187"/>
+        <v>4258116:00-18:00</v>
+      </c>
+      <c r="I191" t="str">
+        <f t="shared" ca="1" si="182"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1" t="str">
+        <f t="shared" ca="1" si="174"/>
+        <v>19:00-21:00</v>
+      </c>
+      <c r="B192" s="2">
+        <f t="shared" ca="1" si="183"/>
+        <v>11</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" ca="1" si="188"/>
+        <v>42581</v>
+      </c>
+      <c r="D192">
+        <f t="shared" ca="1" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" ca="1" si="185"/>
+        <v>7月30日</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" ca="1" si="186"/>
+        <v>星期六</v>
+      </c>
+      <c r="G192" s="1" t="str">
+        <f t="shared" ca="1" si="180"/>
+        <v>19:00-21:00</v>
+      </c>
+      <c r="H192" s="1" t="str">
+        <f t="shared" ca="1" si="187"/>
         <v>4258119:00-21:00</v>
       </c>
-      <c r="I191">
+      <c r="I192">
         <f t="shared" ca="1" si="182"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1">
+    <row r="193" spans="1:9">
+      <c r="A193" s="1">
         <f t="shared" ca="1" si="174"/>
         <v>42582</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B193" s="2">
         <f t="shared" ca="1" si="183"/>
         <v>5</v>
-      </c>
-      <c r="C192" s="1">
-        <f t="shared" ca="1" si="188"/>
-        <v>42582</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" ca="1" si="177"/>
-        <v/>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" ca="1" si="185"/>
-        <v>7月31日</v>
-      </c>
-      <c r="F192" t="str">
-        <f t="shared" ca="1" si="186"/>
-        <v>星期日</v>
-      </c>
-      <c r="G192" s="1">
-        <f t="shared" ca="1" si="180"/>
-        <v>42582</v>
-      </c>
-      <c r="H192" s="1" t="str">
-        <f t="shared" ca="1" si="187"/>
-        <v>4258242582</v>
-      </c>
-      <c r="I192" t="str">
-        <f t="shared" ca="1" si="182"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1" t="str">
-        <f t="shared" ca="1" si="174"/>
-        <v>8:00-10:00</v>
-      </c>
-      <c r="B193" s="2">
-        <f t="shared" ca="1" si="183"/>
-        <v>10</v>
       </c>
       <c r="C193" s="1">
         <f t="shared" ca="1" si="188"/>
@@ -48426,7 +48491,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" ca="1" si="177"/>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" ca="1" si="185"/>
@@ -48436,27 +48501,27 @@
         <f t="shared" ca="1" si="186"/>
         <v>星期日</v>
       </c>
-      <c r="G193" s="1" t="str">
+      <c r="G193" s="1">
         <f t="shared" ca="1" si="180"/>
-        <v>8:00-10:00</v>
+        <v>42582</v>
       </c>
       <c r="H193" s="1" t="str">
         <f t="shared" ca="1" si="187"/>
-        <v>425828:00-10:00</v>
+        <v>4258242582</v>
       </c>
       <c r="I193" t="str">
         <f t="shared" ca="1" si="182"/>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1" t="str">
         <f t="shared" ref="A194" ca="1" si="189">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>10:00-12:00</v>
+        <v>8:00-10:00</v>
       </c>
       <c r="B194" s="2">
         <f t="shared" ca="1" si="183"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C194" s="1">
         <f t="shared" ca="1" si="188"/>
@@ -48476,11 +48541,11 @@
       </c>
       <c r="G194" s="1" t="str">
         <f t="shared" ref="G194" ca="1" si="191">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>10:00-12:00</v>
+        <v>8:00-10:00</v>
       </c>
       <c r="H194" s="1" t="str">
         <f t="shared" ca="1" si="187"/>
-        <v>4258210:00-12:00</v>
+        <v>425828:00-10:00</v>
       </c>
       <c r="I194" t="str">
         <f t="shared" ref="I194" ca="1" si="192">INDIRECT($B$1&amp;"!O:O")</f>
@@ -48490,7 +48555,7 @@
     <row r="195" spans="1:9">
       <c r="A195" s="1" t="str">
         <f t="shared" ref="A195" ca="1" si="193">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>14:00-16:00</v>
+        <v>10:00-12:00</v>
       </c>
       <c r="B195" s="2">
         <f t="shared" ref="B195" ca="1" si="194">LEN(A195)</f>
@@ -48514,11 +48579,11 @@
       </c>
       <c r="G195" s="1" t="str">
         <f t="shared" ref="G195" ca="1" si="198">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>14:00-16:00</v>
+        <v>10:00-12:00</v>
       </c>
       <c r="H195" s="1" t="str">
         <f t="shared" ref="H195" ca="1" si="199">C195&amp;A195</f>
-        <v>4258214:00-16:00</v>
+        <v>4258210:00-12:00</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" ref="I195" ca="1" si="200">INDIRECT($B$1&amp;"!O:O")</f>
@@ -48528,7 +48593,7 @@
     <row r="196" spans="1:9">
       <c r="A196" s="1" t="str">
         <f t="shared" ref="A196" ca="1" si="201">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>16:00-18:00</v>
+        <v>14:00-16:00</v>
       </c>
       <c r="B196" s="2">
         <f t="shared" ref="B196" ca="1" si="202">LEN(A196)</f>
@@ -48552,11 +48617,11 @@
       </c>
       <c r="G196" s="1" t="str">
         <f t="shared" ref="G196" ca="1" si="207">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>16:00-18:00</v>
+        <v>14:00-16:00</v>
       </c>
       <c r="H196" s="1" t="str">
         <f t="shared" ref="H196" ca="1" si="208">C196&amp;A196</f>
-        <v>4258216:00-18:00</v>
+        <v>4258214:00-16:00</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" ref="I196" ca="1" si="209">INDIRECT($B$1&amp;"!O:O")</f>
@@ -48566,7 +48631,7 @@
     <row r="197" spans="1:9">
       <c r="A197" s="1" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>19:00-21:00</v>
+        <v>16:00-18:00</v>
       </c>
       <c r="B197" s="2">
         <f ca="1">LEN(A197)</f>
@@ -48578,7 +48643,7 @@
       </c>
       <c r="D197" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!O:O")</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E197" t="str">
         <f ca="1">TEXT(C197,"m月d日")</f>
@@ -48590,53 +48655,53 @@
       </c>
       <c r="G197" s="1" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>19:00-21:00</v>
+        <v>16:00-18:00</v>
       </c>
       <c r="H197" s="1" t="str">
         <f ca="1">C197&amp;A197</f>
-        <v>4258219:00-21:00</v>
+        <v>4258216:00-18:00</v>
       </c>
       <c r="I197" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!O:O")</f>
-        <v/>
+        <v>数学</v>
       </c>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="1">
+      <c r="A198" s="1" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>0</v>
+        <v>19:00-21:00</v>
       </c>
       <c r="B198" s="2">
         <f ca="1">LEN(A198)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C198" s="1">
         <f ca="1">IF(B198&lt;7,A198,C197)</f>
-        <v>0</v>
+        <v>42582</v>
       </c>
       <c r="D198" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E198" t="str">
         <f ca="1">TEXT(C198,"m月d日")</f>
-        <v>1月0日</v>
+        <v>7月31日</v>
       </c>
       <c r="F198" t="str">
         <f ca="1">TEXT(C198,"aaaa;@")</f>
-        <v>星期六</v>
-      </c>
-      <c r="G198" s="1">
+        <v>星期日</v>
+      </c>
+      <c r="G198" s="1" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!A:A")</f>
-        <v>0</v>
+        <v>19:00-21:00</v>
       </c>
       <c r="H198" s="1" t="str">
         <f ca="1">C198&amp;A198</f>
-        <v>00</v>
+        <v>4258219:00-21:00</v>
       </c>
       <c r="I198" t="str">
         <f ca="1">INDIRECT($B$1&amp;"!O:O")</f>
-        <v>数学</v>
+        <v/>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -48783,7 +48848,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49022,7 +49087,7 @@
       </c>
       <c r="H5" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="I5" s="13"/>
       <c r="N5" t="str">
@@ -49084,7 +49149,7 @@
       </c>
       <c r="H6" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I6" s="13"/>
       <c r="N6" t="str">
@@ -50128,7 +50193,7 @@
       </c>
       <c r="B25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N25,temp!$H:$I,2,FALSE)),"",VLOOKUP(N25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="C25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O25,temp!$H:$I,2,FALSE)),"",VLOOKUP(O25,temp!$H:$I,2,FALSE))</f>
@@ -50136,11 +50201,11 @@
       </c>
       <c r="D25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P25,temp!$H:$I,2,FALSE)),"",VLOOKUP(P25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q25,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="F25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R25,temp!$H:$I,2,FALSE)),"",VLOOKUP(R25,temp!$H:$I,2,FALSE))</f>
@@ -50260,7 +50325,7 @@
       </c>
       <c r="F27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R27,temp!$H:$I,2,FALSE)),"",VLOOKUP(R27,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>207</v>
@@ -50384,7 +50449,7 @@
       </c>
       <c r="H29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T29,temp!$H:$I,2,FALSE)),"",VLOOKUP(T29,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I29" s="13"/>
       <c r="N29" t="str">
@@ -50537,9 +50602,9 @@
         <f ca="1">IF(ISNA(VLOOKUP(R32,temp!$H:$I,2,FALSE)),"",VLOOKUP(R32,temp!$H:$I,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="10">
         <f ca="1">IF(ISNA(VLOOKUP(S32,temp!$H:$I,2,FALSE)),"",VLOOKUP(S32,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
@@ -50789,7 +50854,7 @@
   </protectedRanges>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -51041,7 +51106,7 @@
       </c>
       <c r="H5" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="I5" s="13"/>
       <c r="N5" t="str">
@@ -51103,7 +51168,7 @@
       </c>
       <c r="H6" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I6" s="13"/>
       <c r="N6" t="str">
@@ -51789,11 +51854,11 @@
       </c>
       <c r="G18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S18,temp!$H:$I,2,FALSE)),"",VLOOKUP(S18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T18,temp!$H:$I,2,FALSE)),"",VLOOKUP(T18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I18" s="13"/>
       <c r="N18" t="str">
@@ -52025,7 +52090,7 @@
       </c>
       <c r="D22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P22,temp!$H:$I,2,FALSE)),"",VLOOKUP(P22,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q22,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q22,temp!$H:$I,2,FALSE))</f>
@@ -52037,7 +52102,7 @@
       </c>
       <c r="G22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S22,temp!$H:$I,2,FALSE)),"",VLOOKUP(S22,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="H22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T22,temp!$H:$I,2,FALSE)),"",VLOOKUP(T22,temp!$H:$I,2,FALSE))</f>
@@ -52175,7 +52240,7 @@
       </c>
       <c r="B25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N25,temp!$H:$I,2,FALSE)),"",VLOOKUP(N25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="C25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O25,temp!$H:$I,2,FALSE)),"",VLOOKUP(O25,temp!$H:$I,2,FALSE))</f>
@@ -52183,11 +52248,11 @@
       </c>
       <c r="D25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P25,temp!$H:$I,2,FALSE)),"",VLOOKUP(P25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q25,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="F25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R25,temp!$H:$I,2,FALSE)),"",VLOOKUP(R25,temp!$H:$I,2,FALSE))</f>
@@ -52312,7 +52377,7 @@
       </c>
       <c r="F27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R27,temp!$H:$I,2,FALSE)),"",VLOOKUP(R27,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S27,temp!$H:$I,2,FALSE)),"",VLOOKUP(S27,temp!$H:$I,2,FALSE))</f>
@@ -52424,7 +52489,7 @@
       </c>
       <c r="C29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O29,temp!$H:$I,2,FALSE)),"",VLOOKUP(O29,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="D29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P29,temp!$H:$I,2,FALSE)),"",VLOOKUP(P29,temp!$H:$I,2,FALSE))</f>
@@ -52444,7 +52509,7 @@
       </c>
       <c r="H29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T29,temp!$H:$I,2,FALSE)),"",VLOOKUP(T29,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I29" s="13"/>
       <c r="N29" t="str">
@@ -52595,9 +52660,9 @@
         <f ca="1">IF(ISNA(VLOOKUP(R32,temp!$H:$I,2,FALSE)),"",VLOOKUP(R32,temp!$H:$I,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="10">
         <f ca="1">IF(ISNA(VLOOKUP(S32,temp!$H:$I,2,FALSE)),"",VLOOKUP(S32,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
@@ -52655,7 +52720,7 @@
       </c>
       <c r="F33" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R33,temp!$H:$I,2,FALSE)),"",VLOOKUP(R33,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G33" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S33,temp!$H:$I,2,FALSE)),"",VLOOKUP(S33,temp!$H:$I,2,FALSE))</f>
@@ -52721,11 +52786,11 @@
       </c>
       <c r="G34" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S34,temp!$H:$I,2,FALSE)),"",VLOOKUP(S34,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H34" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T34,temp!$H:$I,2,FALSE)),"",VLOOKUP(T34,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I34" s="13"/>
       <c r="N34" t="str">
@@ -52775,7 +52840,7 @@
       </c>
       <c r="E35" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q35,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q35,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="F35" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R35,temp!$H:$I,2,FALSE)),"",VLOOKUP(R35,temp!$H:$I,2,FALSE))</f>
@@ -52825,7 +52890,7 @@
       </c>
       <c r="B36" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N36,temp!$H:$I,2,FALSE)),"",VLOOKUP(N36,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="C36" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O36,temp!$H:$I,2,FALSE)),"",VLOOKUP(O36,temp!$H:$I,2,FALSE))</f>
@@ -52896,6 +52961,2089 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="14" max="21" width="9" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" ref="B2" ca="1" si="0">C2-1</f>
+        <v>42548</v>
+      </c>
+      <c r="C2" s="8">
+        <f ca="1">D2-1</f>
+        <v>42549</v>
+      </c>
+      <c r="D2" s="8">
+        <f ca="1">E2-1</f>
+        <v>42550</v>
+      </c>
+      <c r="E2" s="8">
+        <f ca="1">F2-1</f>
+        <v>42551</v>
+      </c>
+      <c r="F2" s="8">
+        <f ca="1">G2-1</f>
+        <v>42552</v>
+      </c>
+      <c r="G2" s="8">
+        <f ca="1">I2-1</f>
+        <v>42553</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f ca="1">TEXT(I2,"m月d日")</f>
+        <v>7月3日</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f ca="1">YEAR(temp!A2)&amp;"年"&amp;L1&amp;VLOOKUP(H1,temp!J2:K8,2,FALSE)&amp;"日"</f>
+        <v>2016年7月3日</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N3,temp!$H:$I,2,FALSE)),"",VLOOKUP(N3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O3,temp!$H:$I,2,FALSE)),"",VLOOKUP(O3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P3,temp!$H:$I,2,FALSE)),"",VLOOKUP(P3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q3,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R3,temp!$H:$I,2,FALSE)),"",VLOOKUP(R3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S3,temp!$H:$I,2,FALSE)),"",VLOOKUP(S3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H3" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T3,temp!$H:$I,2,FALSE)),"",VLOOKUP(T3,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="N3" t="str">
+        <f ca="1">B2&amp;$A3</f>
+        <v>425488:00-10:00</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3" ca="1" si="1">C2&amp;$A3</f>
+        <v>425498:00-10:00</v>
+      </c>
+      <c r="P3" t="str">
+        <f ca="1">D2&amp;$A3</f>
+        <v>425508:00-10:00</v>
+      </c>
+      <c r="Q3" t="str">
+        <f ca="1">E2&amp;$A3</f>
+        <v>425518:00-10:00</v>
+      </c>
+      <c r="R3" t="str">
+        <f ca="1">F2&amp;$A3</f>
+        <v>425528:00-10:00</v>
+      </c>
+      <c r="S3" t="str">
+        <f ca="1">G2&amp;$A3</f>
+        <v>425538:00-10:00</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3" ca="1" si="2">TEXT(I$2,"#")&amp;$A3</f>
+        <v>425548:00-10:00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N4,temp!$H:$I,2,FALSE)),"",VLOOKUP(N4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O4,temp!$H:$I,2,FALSE)),"",VLOOKUP(O4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P4,temp!$H:$I,2,FALSE)),"",VLOOKUP(P4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q4,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R4,temp!$H:$I,2,FALSE)),"",VLOOKUP(R4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S4,temp!$H:$I,2,FALSE)),"",VLOOKUP(S4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T4,temp!$H:$I,2,FALSE)),"",VLOOKUP(T4,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="N4" t="str">
+        <f ca="1">B$2&amp;$A4</f>
+        <v>4254810:00-12:00</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:S8" ca="1" si="3">C$2&amp;$A4</f>
+        <v>4254910:00-12:00</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255010:00-12:00</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255110:00-12:00</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255210:00-12:00</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255310:00-12:00</v>
+      </c>
+      <c r="T4" t="str">
+        <f ca="1">TEXT(I$2,"#")&amp;$A4</f>
+        <v>4255410:00-12:00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N5,temp!$H:$I,2,FALSE)),"",VLOOKUP(N5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O5,temp!$H:$I,2,FALSE)),"",VLOOKUP(O5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P5,temp!$H:$I,2,FALSE)),"",VLOOKUP(P5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q5,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R5,temp!$H:$I,2,FALSE)),"",VLOOKUP(R5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S5,temp!$H:$I,2,FALSE)),"",VLOOKUP(S5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="N5" t="str">
+        <f ca="1">B$2&amp;$A5</f>
+        <v>4254814:00-16:00</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4254914:00-16:00</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255014:00-16:00</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255114:00-16:00</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255214:00-16:00</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255314:00-16:00</v>
+      </c>
+      <c r="T5" t="str">
+        <f ca="1">TEXT(I$2,"#")&amp;$A5</f>
+        <v>4255414:00-16:00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N6,temp!$H:$I,2,FALSE)),"",VLOOKUP(N6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O6,temp!$H:$I,2,FALSE)),"",VLOOKUP(O6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P6,temp!$H:$I,2,FALSE)),"",VLOOKUP(P6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q6,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R6,temp!$H:$I,2,FALSE)),"",VLOOKUP(R6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S6,temp!$H:$I,2,FALSE)),"",VLOOKUP(S6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="N6" t="str">
+        <f ca="1">B$2&amp;$A6</f>
+        <v>4254816:00-18:00</v>
+      </c>
+      <c r="O6" t="str">
+        <f ca="1">C$2&amp;$A6</f>
+        <v>4254916:00-18:00</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255016:00-18:00</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255116:00-18:00</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255216:00-18:00</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255316:00-18:00</v>
+      </c>
+      <c r="T6" t="str">
+        <f ca="1">TEXT(I$2,"#")&amp;$A6</f>
+        <v>4255416:00-18:00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N7,temp!$H:$I,2,FALSE)),"",VLOOKUP(N7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O7,temp!$H:$I,2,FALSE)),"",VLOOKUP(O7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P7,temp!$H:$I,2,FALSE)),"",VLOOKUP(P7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q7,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R7,temp!$H:$I,2,FALSE)),"",VLOOKUP(R7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S7,temp!$H:$I,2,FALSE)),"",VLOOKUP(S7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T7,temp!$H:$I,2,FALSE)),"",VLOOKUP(T7,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="N7" t="str">
+        <f ca="1">B$2&amp;$A7</f>
+        <v>4254817:00-19:00</v>
+      </c>
+      <c r="O7" t="str">
+        <f ca="1">C$2&amp;$A7</f>
+        <v>4254917:00-19:00</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255017:00-19:00</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255117:00-19:00</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255217:00-19:00</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255317:00-19:00</v>
+      </c>
+      <c r="T7" t="str">
+        <f ca="1">TEXT(I$2,"#")&amp;$A7</f>
+        <v>4255417:00-19:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N8,temp!$H:$I,2,FALSE)),"",VLOOKUP(N8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O8,temp!$H:$I,2,FALSE)),"",VLOOKUP(O8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P8,temp!$H:$I,2,FALSE)),"",VLOOKUP(P8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q8,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R8,temp!$H:$I,2,FALSE)),"",VLOOKUP(R8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S8,temp!$H:$I,2,FALSE)),"",VLOOKUP(S8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T8,temp!$H:$I,2,FALSE)),"",VLOOKUP(T8,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="N8" t="str">
+        <f ca="1">B$2&amp;$A8</f>
+        <v>4254819:00-21:00</v>
+      </c>
+      <c r="O8" t="str">
+        <f ca="1">C$2&amp;$A8</f>
+        <v>4254919:00-21:00</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255019:00-21:00</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255119:00-21:00</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255219:00-21:00</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4255319:00-21:00</v>
+      </c>
+      <c r="T8" t="str">
+        <f ca="1">TEXT(I$2,"#")&amp;$A8</f>
+        <v>4255419:00-21:00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="8">
+        <f ca="1">I2+1</f>
+        <v>42555</v>
+      </c>
+      <c r="C9" s="8">
+        <f ca="1">B9+1</f>
+        <v>42556</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9" ca="1" si="4">C9+1</f>
+        <v>42557</v>
+      </c>
+      <c r="E9" s="8">
+        <f ca="1">D9+1</f>
+        <v>42558</v>
+      </c>
+      <c r="F9" s="8">
+        <f ca="1">E9+1</f>
+        <v>42559</v>
+      </c>
+      <c r="G9" s="8">
+        <f ca="1">F9+1</f>
+        <v>42560</v>
+      </c>
+      <c r="H9" s="8">
+        <f ca="1">G9+1</f>
+        <v>42561</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N10,temp!$H:$I,2,FALSE)),"",VLOOKUP(N10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O10,temp!$H:$I,2,FALSE)),"",VLOOKUP(O10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P10,temp!$H:$I,2,FALSE)),"",VLOOKUP(P10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q10,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R10,temp!$H:$I,2,FALSE)),"",VLOOKUP(R10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S10,temp!$H:$I,2,FALSE)),"",VLOOKUP(S10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T10,temp!$H:$I,2,FALSE)),"",VLOOKUP(T10,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="N10" t="str">
+        <f ca="1">B9&amp;$A10</f>
+        <v>425558:00-10:00</v>
+      </c>
+      <c r="O10" t="str">
+        <f ca="1">C9&amp;$A10</f>
+        <v>425568:00-10:00</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:S10" ca="1" si="5">D9&amp;$A10</f>
+        <v>425578:00-10:00</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>425588:00-10:00</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>425598:00-10:00</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>425608:00-10:00</v>
+      </c>
+      <c r="T10" t="str">
+        <f ca="1">H9&amp;$A10</f>
+        <v>425618:00-10:00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N11,temp!$H:$I,2,FALSE)),"",VLOOKUP(N11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O11,temp!$H:$I,2,FALSE)),"",VLOOKUP(O11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P11,temp!$H:$I,2,FALSE)),"",VLOOKUP(P11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q11,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R11,temp!$H:$I,2,FALSE)),"",VLOOKUP(R11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S11,temp!$H:$I,2,FALSE)),"",VLOOKUP(S11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T11,temp!$H:$I,2,FALSE)),"",VLOOKUP(T11,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="N11" t="str">
+        <f ca="1">B$9&amp;$A11</f>
+        <v>4255510:00-12:00</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" ref="O11:T15" ca="1" si="6">C$9&amp;$A11</f>
+        <v>4255610:00-12:00</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255710:00-12:00</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255810:00-12:00</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255910:00-12:00</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256010:00-12:00</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256110:00-12:00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N12,temp!$H:$I,2,FALSE)),"",VLOOKUP(N12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O12,temp!$H:$I,2,FALSE)),"",VLOOKUP(O12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P12,temp!$H:$I,2,FALSE)),"",VLOOKUP(P12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q12,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R12,temp!$H:$I,2,FALSE)),"",VLOOKUP(R12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S12,temp!$H:$I,2,FALSE)),"",VLOOKUP(S12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T12,temp!$H:$I,2,FALSE)),"",VLOOKUP(T12,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="N12" t="str">
+        <f ca="1">B$9&amp;$A12</f>
+        <v>4255514:00-16:00</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255614:00-16:00</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255714:00-16:00</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255814:00-16:00</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255914:00-16:00</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256014:00-16:00</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256114:00-16:00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N13,temp!$H:$I,2,FALSE)),"",VLOOKUP(N13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O13,temp!$H:$I,2,FALSE)),"",VLOOKUP(O13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P13,temp!$H:$I,2,FALSE)),"",VLOOKUP(P13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q13,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R13,temp!$H:$I,2,FALSE)),"",VLOOKUP(R13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S13,temp!$H:$I,2,FALSE)),"",VLOOKUP(S13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T13,temp!$H:$I,2,FALSE)),"",VLOOKUP(T13,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13" ca="1" si="7">B$9&amp;$A13</f>
+        <v>4255516:00-18:00</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255616:00-18:00</v>
+      </c>
+      <c r="P13" t="str">
+        <f ca="1">D$9&amp;$A13</f>
+        <v>4255716:00-18:00</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255816:00-18:00</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255916:00-18:00</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256016:00-18:00</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256116:00-18:00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N14,temp!$H:$I,2,FALSE)),"",VLOOKUP(N14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O14,temp!$H:$I,2,FALSE)),"",VLOOKUP(O14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P14,temp!$H:$I,2,FALSE)),"",VLOOKUP(P14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q14,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R14,temp!$H:$I,2,FALSE)),"",VLOOKUP(R14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S14,temp!$H:$I,2,FALSE)),"",VLOOKUP(S14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T14,temp!$H:$I,2,FALSE)),"",VLOOKUP(T14,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="N14" t="str">
+        <f ca="1">B$9&amp;$A14</f>
+        <v>4255517:00-19:00</v>
+      </c>
+      <c r="O14" t="str">
+        <f ca="1">C$9&amp;$A14</f>
+        <v>4255617:00-19:00</v>
+      </c>
+      <c r="P14" t="str">
+        <f ca="1">D$9&amp;$A14</f>
+        <v>4255717:00-19:00</v>
+      </c>
+      <c r="Q14" t="str">
+        <f ca="1">E$9&amp;$A14</f>
+        <v>4255817:00-19:00</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255917:00-19:00</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256017:00-19:00</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256117:00-19:00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N15,temp!$H:$I,2,FALSE)),"",VLOOKUP(N15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O15,temp!$H:$I,2,FALSE)),"",VLOOKUP(O15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P15,temp!$H:$I,2,FALSE)),"",VLOOKUP(P15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q15,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R15,temp!$H:$I,2,FALSE)),"",VLOOKUP(R15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S15,temp!$H:$I,2,FALSE)),"",VLOOKUP(S15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T15,temp!$H:$I,2,FALSE)),"",VLOOKUP(T15,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="N15" t="str">
+        <f ca="1">B$9&amp;$A15</f>
+        <v>4255519:00-21:00</v>
+      </c>
+      <c r="O15" t="str">
+        <f ca="1">C$9&amp;$A15</f>
+        <v>4255619:00-21:00</v>
+      </c>
+      <c r="P15" t="str">
+        <f ca="1">D$9&amp;$A15</f>
+        <v>4255719:00-21:00</v>
+      </c>
+      <c r="Q15" t="str">
+        <f ca="1">E$9&amp;$A15</f>
+        <v>4255819:00-21:00</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4255919:00-21:00</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256019:00-21:00</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>4256119:00-21:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8">
+        <f ca="1">H9+1</f>
+        <v>42562</v>
+      </c>
+      <c r="C16" s="8">
+        <f ca="1">B16+1</f>
+        <v>42563</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16" ca="1" si="8">C16+1</f>
+        <v>42564</v>
+      </c>
+      <c r="E16" s="8">
+        <f ca="1">D16+1</f>
+        <v>42565</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">E16+1</f>
+        <v>42566</v>
+      </c>
+      <c r="G16" s="8">
+        <f ca="1">F16+1</f>
+        <v>42567</v>
+      </c>
+      <c r="H16" s="8">
+        <f ca="1">G16+1</f>
+        <v>42568</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N17,temp!$H:$I,2,FALSE)),"",VLOOKUP(N17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O17,temp!$H:$I,2,FALSE)),"",VLOOKUP(O17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P17,temp!$H:$I,2,FALSE)),"",VLOOKUP(P17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q17,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R17,temp!$H:$I,2,FALSE)),"",VLOOKUP(R17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S17,temp!$H:$I,2,FALSE)),"",VLOOKUP(S17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T17,temp!$H:$I,2,FALSE)),"",VLOOKUP(T17,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="N17" t="str">
+        <f ca="1">B16&amp;$A17</f>
+        <v>425628:00-10:00</v>
+      </c>
+      <c r="O17" t="str">
+        <f ca="1">C16&amp;$A17</f>
+        <v>425638:00-10:00</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:S17" ca="1" si="9">D16&amp;$A17</f>
+        <v>425648:00-10:00</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>425658:00-10:00</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>425668:00-10:00</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>425678:00-10:00</v>
+      </c>
+      <c r="T17" t="str">
+        <f ca="1">H16&amp;$A17</f>
+        <v>425688:00-10:00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N18,temp!$H:$I,2,FALSE)),"",VLOOKUP(N18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O18,temp!$H:$I,2,FALSE)),"",VLOOKUP(O18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P18,temp!$H:$I,2,FALSE)),"",VLOOKUP(P18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q18,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R18,temp!$H:$I,2,FALSE)),"",VLOOKUP(R18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S18,temp!$H:$I,2,FALSE)),"",VLOOKUP(S18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T18,temp!$H:$I,2,FALSE)),"",VLOOKUP(T18,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="N18" t="str">
+        <f t="shared" ref="N18:T22" ca="1" si="10">B$16&amp;$A18</f>
+        <v>4256210:00-12:00</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256310:00-12:00</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256410:00-12:00</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256510:00-12:00</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256610:00-12:00</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256710:00-12:00</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256810:00-12:00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N19,temp!$H:$I,2,FALSE)),"",VLOOKUP(N19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O19,temp!$H:$I,2,FALSE)),"",VLOOKUP(O19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P19,temp!$H:$I,2,FALSE)),"",VLOOKUP(P19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q19,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R19,temp!$H:$I,2,FALSE)),"",VLOOKUP(R19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S19,temp!$H:$I,2,FALSE)),"",VLOOKUP(S19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T19,temp!$H:$I,2,FALSE)),"",VLOOKUP(T19,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="N19" t="str">
+        <f ca="1">B$16&amp;$A19</f>
+        <v>4256214:00-16:00</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256314:00-16:00</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256414:00-16:00</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256514:00-16:00</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256614:00-16:00</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256714:00-16:00</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256814:00-16:00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A20" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N20,temp!$H:$I,2,FALSE)),"",VLOOKUP(N20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O20,temp!$H:$I,2,FALSE)),"",VLOOKUP(O20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P20,temp!$H:$I,2,FALSE)),"",VLOOKUP(P20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q20,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R20,temp!$H:$I,2,FALSE)),"",VLOOKUP(R20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S20,temp!$H:$I,2,FALSE)),"",VLOOKUP(S20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H20" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T20,temp!$H:$I,2,FALSE)),"",VLOOKUP(T20,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="N20" t="str">
+        <f ca="1">B$16&amp;$A20</f>
+        <v>4256216:00-18:00</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256316:00-18:00</v>
+      </c>
+      <c r="P20" t="str">
+        <f ca="1">D$16&amp;$A20</f>
+        <v>4256416:00-18:00</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256516:00-18:00</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256616:00-18:00</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256716:00-18:00</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256816:00-18:00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N21,temp!$H:$I,2,FALSE)),"",VLOOKUP(N21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O21,temp!$H:$I,2,FALSE)),"",VLOOKUP(O21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P21,temp!$H:$I,2,FALSE)),"",VLOOKUP(P21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q21,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R21,temp!$H:$I,2,FALSE)),"",VLOOKUP(R21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S21,temp!$H:$I,2,FALSE)),"",VLOOKUP(S21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T21,temp!$H:$I,2,FALSE)),"",VLOOKUP(T21,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="N21" t="str">
+        <f ca="1">B$16&amp;$A21</f>
+        <v>4256217:00-19:00</v>
+      </c>
+      <c r="O21" t="str">
+        <f ca="1">C$16&amp;$A21</f>
+        <v>4256317:00-19:00</v>
+      </c>
+      <c r="P21" t="str">
+        <f ca="1">D$16&amp;$A21</f>
+        <v>4256417:00-19:00</v>
+      </c>
+      <c r="Q21" t="str">
+        <f ca="1">E$16&amp;$A21</f>
+        <v>4256517:00-19:00</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256617:00-19:00</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256717:00-19:00</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256817:00-19:00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N22,temp!$H:$I,2,FALSE)),"",VLOOKUP(N22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O22,temp!$H:$I,2,FALSE)),"",VLOOKUP(O22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P22,temp!$H:$I,2,FALSE)),"",VLOOKUP(P22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q22,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R22,temp!$H:$I,2,FALSE)),"",VLOOKUP(R22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S22,temp!$H:$I,2,FALSE)),"",VLOOKUP(S22,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T22,temp!$H:$I,2,FALSE)),"",VLOOKUP(T22,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="N22" t="str">
+        <f ca="1">B$16&amp;$A22</f>
+        <v>4256219:00-21:00</v>
+      </c>
+      <c r="O22" t="str">
+        <f ca="1">C$16&amp;$A22</f>
+        <v>4256319:00-21:00</v>
+      </c>
+      <c r="P22" t="str">
+        <f ca="1">D$16&amp;$A22</f>
+        <v>4256419:00-21:00</v>
+      </c>
+      <c r="Q22" t="str">
+        <f ca="1">E$16&amp;$A22</f>
+        <v>4256519:00-21:00</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256619:00-21:00</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256719:00-21:00</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>4256819:00-21:00</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8">
+        <f ca="1">H16+1</f>
+        <v>42569</v>
+      </c>
+      <c r="C23" s="8">
+        <f ca="1">B23+1</f>
+        <v>42570</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23" ca="1" si="11">C23+1</f>
+        <v>42571</v>
+      </c>
+      <c r="E23" s="8">
+        <f ca="1">D23+1</f>
+        <v>42572</v>
+      </c>
+      <c r="F23" s="8">
+        <f ca="1">E23+1</f>
+        <v>42573</v>
+      </c>
+      <c r="G23" s="8">
+        <f ca="1">F23+1</f>
+        <v>42574</v>
+      </c>
+      <c r="H23" s="8">
+        <f ca="1">G23+1</f>
+        <v>42575</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N24,temp!$H:$I,2,FALSE)),"",VLOOKUP(N24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O24,temp!$H:$I,2,FALSE)),"",VLOOKUP(O24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P24,temp!$H:$I,2,FALSE)),"",VLOOKUP(P24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q24,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R24,temp!$H:$I,2,FALSE)),"",VLOOKUP(R24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S24,temp!$H:$I,2,FALSE)),"",VLOOKUP(S24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T24,temp!$H:$I,2,FALSE)),"",VLOOKUP(T24,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="N24" t="str">
+        <f ca="1">B$23&amp;$A24</f>
+        <v>425698:00-10:00</v>
+      </c>
+      <c r="O24" t="str">
+        <f ca="1">C23&amp;$A24</f>
+        <v>425708:00-10:00</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" ref="P24:S24" ca="1" si="12">D23&amp;$A24</f>
+        <v>425718:00-10:00</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>425728:00-10:00</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>425738:00-10:00</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>425748:00-10:00</v>
+      </c>
+      <c r="T24" t="str">
+        <f ca="1">H23&amp;$A24</f>
+        <v>425758:00-10:00</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N25,temp!$H:$I,2,FALSE)),"",VLOOKUP(N25,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O25,temp!$H:$I,2,FALSE)),"",VLOOKUP(O25,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P25,temp!$H:$I,2,FALSE)),"",VLOOKUP(P25,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q25,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q25,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S27,temp!$H:$I,2,FALSE)),"",VLOOKUP(S27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H25" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T27,temp!$H:$I,2,FALSE)),"",VLOOKUP(T27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="N25" t="str">
+        <f t="shared" ref="N25:T29" ca="1" si="13">B$23&amp;$A25</f>
+        <v>4256910:00-12:00</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257010:00-12:00</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257110:00-12:00</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257210:00-12:00</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257310:00-12:00</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257410:00-12:00</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257510:00-12:00</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A26" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N26,temp!$H:$I,2,FALSE)),"",VLOOKUP(N26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O26,temp!$H:$I,2,FALSE)),"",VLOOKUP(O26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P26,temp!$H:$I,2,FALSE)),"",VLOOKUP(P26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q26,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R26,temp!$H:$I,2,FALSE)),"",VLOOKUP(R26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S26,temp!$H:$I,2,FALSE)),"",VLOOKUP(S26,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T29,temp!$H:$I,2,FALSE)),"",VLOOKUP(T29,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="N26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4256914:00-16:00</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257014:00-16:00</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257114:00-16:00</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257214:00-16:00</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257314:00-16:00</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257414:00-16:00</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257514:00-16:00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A27" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N27,temp!$H:$I,2,FALSE)),"",VLOOKUP(N27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O27,temp!$H:$I,2,FALSE)),"",VLOOKUP(O27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P27,temp!$H:$I,2,FALSE)),"",VLOOKUP(P27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q27,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q27,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="I27" s="13"/>
+      <c r="N27" t="str">
+        <f ca="1">B$23&amp;$A27</f>
+        <v>4256916:00-18:00</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257016:00-18:00</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257116:00-18:00</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257216:00-18:00</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257316:00-18:00</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257416:00-18:00</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257516:00-18:00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N28,temp!$H:$I,2,FALSE)),"",VLOOKUP(N28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O28,temp!$H:$I,2,FALSE)),"",VLOOKUP(O28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P28,temp!$H:$I,2,FALSE)),"",VLOOKUP(P28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q28,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R28,temp!$H:$I,2,FALSE)),"",VLOOKUP(R28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S28,temp!$H:$I,2,FALSE)),"",VLOOKUP(S28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T28,temp!$H:$I,2,FALSE)),"",VLOOKUP(T28,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="N28" t="str">
+        <f ca="1">B$23&amp;$A28</f>
+        <v>4256917:00-19:00</v>
+      </c>
+      <c r="O28" t="str">
+        <f ca="1">C$23&amp;$A28</f>
+        <v>4257017:00-19:00</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257117:00-19:00</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257217:00-19:00</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257317:00-19:00</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257417:00-19:00</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257517:00-19:00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N29,temp!$H:$I,2,FALSE)),"",VLOOKUP(N29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O29,temp!$H:$I,2,FALSE)),"",VLOOKUP(O29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P29,temp!$H:$I,2,FALSE)),"",VLOOKUP(P29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q29,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R29,temp!$H:$I,2,FALSE)),"",VLOOKUP(R29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G29" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S29,temp!$H:$I,2,FALSE)),"",VLOOKUP(S29,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="N29" t="str">
+        <f ca="1">B$23&amp;$A29</f>
+        <v>4256919:00-21:00</v>
+      </c>
+      <c r="O29" t="str">
+        <f ca="1">C$23&amp;$A29</f>
+        <v>4257019:00-21:00</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257119:00-21:00</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257219:00-21:00</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257319:00-21:00</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257419:00-21:00</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>4257519:00-21:00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="8">
+        <f ca="1">H23+1</f>
+        <v>42576</v>
+      </c>
+      <c r="C30" s="8">
+        <f ca="1">B30+1</f>
+        <v>42577</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ref="D30" ca="1" si="14">C30+1</f>
+        <v>42578</v>
+      </c>
+      <c r="E30" s="8">
+        <f ca="1">D30+1</f>
+        <v>42579</v>
+      </c>
+      <c r="F30" s="8">
+        <f ca="1">E30+1</f>
+        <v>42580</v>
+      </c>
+      <c r="G30" s="8">
+        <f ca="1">F30+1</f>
+        <v>42581</v>
+      </c>
+      <c r="H30" s="8">
+        <f ca="1">G30+1</f>
+        <v>42582</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N31,temp!$H:$I,2,FALSE)),"",VLOOKUP(N31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O31,temp!$H:$I,2,FALSE)),"",VLOOKUP(O31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P31,temp!$H:$I,2,FALSE)),"",VLOOKUP(P31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q31,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R31,temp!$H:$I,2,FALSE)),"",VLOOKUP(R31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S31,temp!$H:$I,2,FALSE)),"",VLOOKUP(S31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H31" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T31,temp!$H:$I,2,FALSE)),"",VLOOKUP(T31,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="N31" t="str">
+        <f ca="1">B$30&amp;$A31</f>
+        <v>425768:00-10:00</v>
+      </c>
+      <c r="O31" t="str">
+        <f ca="1">C30&amp;$A31</f>
+        <v>425778:00-10:00</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" ref="P31:S31" ca="1" si="15">D30&amp;$A31</f>
+        <v>425788:00-10:00</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>425798:00-10:00</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>425808:00-10:00</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>425818:00-10:00</v>
+      </c>
+      <c r="T31" t="str">
+        <f ca="1">H30&amp;$A31</f>
+        <v>425828:00-10:00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N32,temp!$H:$I,2,FALSE)),"",VLOOKUP(N32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O32,temp!$H:$I,2,FALSE)),"",VLOOKUP(O32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P32,temp!$H:$I,2,FALSE)),"",VLOOKUP(P32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q32,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R32,temp!$H:$I,2,FALSE)),"",VLOOKUP(R32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="N32" t="str">
+        <f t="shared" ref="N32:T36" ca="1" si="16">B$30&amp;$A32</f>
+        <v>4257610:00-12:00</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257710:00-12:00</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257810:00-12:00</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257910:00-12:00</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258010:00-12:00</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258110:00-12:00</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258210:00-12:00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A33" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N33,temp!$H:$I,2,FALSE)),"",VLOOKUP(N33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O33,temp!$H:$I,2,FALSE)),"",VLOOKUP(O33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P33,temp!$H:$I,2,FALSE)),"",VLOOKUP(P33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q33,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S33,temp!$H:$I,2,FALSE)),"",VLOOKUP(S33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T33,temp!$H:$I,2,FALSE)),"",VLOOKUP(T33,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="N33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257614:00-16:00</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257714:00-16:00</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257814:00-16:00</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257914:00-16:00</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258014:00-16:00</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258114:00-16:00</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258214:00-16:00</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A34" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N34,temp!$H:$I,2,FALSE)),"",VLOOKUP(N34,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O34,temp!$H:$I,2,FALSE)),"",VLOOKUP(O34,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P34,temp!$H:$I,2,FALSE)),"",VLOOKUP(P34,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S34,temp!$H:$I,2,FALSE)),"",VLOOKUP(S34,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H34" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T34,temp!$H:$I,2,FALSE)),"",VLOOKUP(T34,temp!$H:$I,2,FALSE))</f>
+        <v>数学</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="N34" t="str">
+        <f ca="1">B$30&amp;$A34</f>
+        <v>4257616:00-18:00</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257716:00-18:00</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257816:00-18:00</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257916:00-18:00</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258016:00-18:00</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258116:00-18:00</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258216:00-18:00</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N35,temp!$H:$I,2,FALSE)),"",VLOOKUP(N35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O35,temp!$H:$I,2,FALSE)),"",VLOOKUP(O35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P35,temp!$H:$I,2,FALSE)),"",VLOOKUP(P35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q35,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R35,temp!$H:$I,2,FALSE)),"",VLOOKUP(R35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(S35,temp!$H:$I,2,FALSE)),"",VLOOKUP(S35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T35,temp!$H:$I,2,FALSE)),"",VLOOKUP(T35,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="N35" t="str">
+        <f ca="1">B$30&amp;$A35</f>
+        <v>4257617:00-19:00</v>
+      </c>
+      <c r="O35" t="str">
+        <f ca="1">C$30&amp;$A35</f>
+        <v>4257717:00-19:00</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257817:00-19:00</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257917:00-19:00</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258017:00-19:00</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258117:00-19:00</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258217:00-19:00</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(N36,temp!$H:$I,2,FALSE)),"",VLOOKUP(N36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(O36,temp!$H:$I,2,FALSE)),"",VLOOKUP(O36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(P36,temp!$H:$I,2,FALSE)),"",VLOOKUP(P36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(Q36,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(R36,temp!$H:$I,2,FALSE)),"",VLOOKUP(R36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="str">
+        <f ca="1">IF(ISNA(VLOOKUP(T36,temp!$H:$I,2,FALSE)),"",VLOOKUP(T36,temp!$H:$I,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="N36" t="str">
+        <f ca="1">B$30&amp;$A36</f>
+        <v>4257619:00-21:00</v>
+      </c>
+      <c r="O36" t="str">
+        <f ca="1">C$30&amp;$A36</f>
+        <v>4257719:00-21:00</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257819:00-21:00</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4257919:00-21:00</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258019:00-21:00</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258119:00-21:00</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4258219:00-21:00</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="P37" s="1"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="L1" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="L2" name="区域1_2" securityDescriptor=""/>
+  </protectedRanges>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -53143,7 +55291,7 @@
       </c>
       <c r="H5" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T5,temp!$H:$I,2,FALSE)),"",VLOOKUP(T5,temp!$H:$I,2,FALSE))</f>
-        <v>化学</v>
+        <v/>
       </c>
       <c r="I5" s="13"/>
       <c r="N5" t="str">
@@ -53205,7 +55353,7 @@
       </c>
       <c r="H6" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T6,temp!$H:$I,2,FALSE)),"",VLOOKUP(T6,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I6" s="13"/>
       <c r="N6" t="str">
@@ -53891,11 +56039,11 @@
       </c>
       <c r="G18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S18,temp!$H:$I,2,FALSE)),"",VLOOKUP(S18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="H18" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T18,temp!$H:$I,2,FALSE)),"",VLOOKUP(T18,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="I18" s="13"/>
       <c r="N18" t="str">
@@ -54127,7 +56275,7 @@
       </c>
       <c r="D22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P22,temp!$H:$I,2,FALSE)),"",VLOOKUP(P22,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="E22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q22,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q22,temp!$H:$I,2,FALSE))</f>
@@ -54139,7 +56287,7 @@
       </c>
       <c r="G22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S22,temp!$H:$I,2,FALSE)),"",VLOOKUP(S22,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="H22" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T22,temp!$H:$I,2,FALSE)),"",VLOOKUP(T22,temp!$H:$I,2,FALSE))</f>
@@ -54278,7 +56426,7 @@
       </c>
       <c r="B25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(N25,temp!$H:$I,2,FALSE)),"",VLOOKUP(N25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="C25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O25,temp!$H:$I,2,FALSE)),"",VLOOKUP(O25,temp!$H:$I,2,FALSE))</f>
@@ -54286,11 +56434,11 @@
       </c>
       <c r="D25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P25,temp!$H:$I,2,FALSE)),"",VLOOKUP(P25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="E25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(Q25,temp!$H:$I,2,FALSE)),"",VLOOKUP(Q25,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="F25" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R25,temp!$H:$I,2,FALSE)),"",VLOOKUP(R25,temp!$H:$I,2,FALSE))</f>
@@ -54418,7 +56566,7 @@
       </c>
       <c r="F27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(R27,temp!$H:$I,2,FALSE)),"",VLOOKUP(R27,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="G27" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(S27,temp!$H:$I,2,FALSE)),"",VLOOKUP(S27,temp!$H:$I,2,FALSE))</f>
@@ -54530,7 +56678,7 @@
       </c>
       <c r="C29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(O29,temp!$H:$I,2,FALSE)),"",VLOOKUP(O29,temp!$H:$I,2,FALSE))</f>
-        <v>数学</v>
+        <v/>
       </c>
       <c r="D29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(P29,temp!$H:$I,2,FALSE)),"",VLOOKUP(P29,temp!$H:$I,2,FALSE))</f>
@@ -54549,7 +56697,7 @@
       </c>
       <c r="H29" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T29,temp!$H:$I,2,FALSE)),"",VLOOKUP(T29,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I29" s="13"/>
       <c r="N29" t="str">
@@ -54702,9 +56850,9 @@
         <f ca="1">IF(ISNA(VLOOKUP(R32,temp!$H:$I,2,FALSE)),"",VLOOKUP(R32,temp!$H:$I,2,FALSE))</f>
         <v/>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G32" s="10">
         <f ca="1">IF(ISNA(VLOOKUP(S32,temp!$H:$I,2,FALSE)),"",VLOOKUP(S32,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H32" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T32,temp!$H:$I,2,FALSE)),"",VLOOKUP(T32,temp!$H:$I,2,FALSE))</f>
@@ -54827,7 +56975,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10" t="str">
         <f ca="1">IF(ISNA(VLOOKUP(T34,temp!$H:$I,2,FALSE)),"",VLOOKUP(T34,temp!$H:$I,2,FALSE))</f>
-        <v/>
+        <v>数学</v>
       </c>
       <c r="I34" s="13"/>
       <c r="N34" t="str">

--- a/16年暑期课表.xlsx
+++ b/16年暑期课表.xlsx
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">王昊!$D$1:$D$1048347</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="216">
   <si>
     <t>需要教室数</t>
   </si>
@@ -4902,8 +4901,8 @@
   </sheetPr>
   <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12742,9 +12741,7 @@
         <v>102</v>
       </c>
       <c r="F109" s="151"/>
-      <c r="G109" s="236" t="s">
-        <v>196</v>
-      </c>
+      <c r="G109" s="191"/>
       <c r="H109" s="185"/>
       <c r="I109" s="146"/>
       <c r="J109" s="19"/>
@@ -12752,7 +12749,7 @@
       <c r="L109" s="35"/>
       <c r="M109" s="47">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O109" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -12811,9 +12808,7 @@
         <v>193</v>
       </c>
       <c r="C110" s="153"/>
-      <c r="D110" s="236" t="s">
-        <v>195</v>
-      </c>
+      <c r="D110" s="191"/>
       <c r="E110" s="191"/>
       <c r="F110" s="205"/>
       <c r="G110" s="146"/>
@@ -12824,7 +12819,7 @@
       <c r="L110" s="35"/>
       <c r="M110" s="47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O110" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -13711,9 +13706,7 @@
       <c r="E122" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="F122" s="146" t="s">
-        <v>96</v>
-      </c>
+      <c r="F122" s="146"/>
       <c r="G122" s="236" t="s">
         <v>196</v>
       </c>
@@ -13724,7 +13717,7 @@
       <c r="L122" s="35"/>
       <c r="M122" s="47">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O122" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14677,10 +14670,10 @@
       <c r="E135" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="F135" s="29"/>
-      <c r="G135" s="146" t="s">
-        <v>109</v>
-      </c>
+      <c r="F135" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" s="146"/>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="19"/>
@@ -14751,9 +14744,7 @@
       <c r="E136" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="F136" s="146" t="s">
-        <v>96</v>
-      </c>
+      <c r="F136" s="146"/>
       <c r="G136" s="101" t="s">
         <v>190</v>
       </c>
@@ -14764,7 +14755,7 @@
       <c r="L136" s="35"/>
       <c r="M136" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O136" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -16936,9 +16927,7 @@
       <c r="E168" s="217" t="s">
         <v>188</v>
       </c>
-      <c r="F168" s="146" t="s">
-        <v>96</v>
-      </c>
+      <c r="F168" s="146"/>
       <c r="G168" s="35"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -16947,7 +16936,7 @@
       <c r="L168" s="35"/>
       <c r="M168" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O168" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -17615,9 +17604,7 @@
         <v>188</v>
       </c>
       <c r="F178" s="139"/>
-      <c r="G178" s="146" t="s">
-        <v>109</v>
-      </c>
+      <c r="G178" s="146"/>
       <c r="H178" s="146"/>
       <c r="I178" s="146"/>
       <c r="J178" s="146"/>
@@ -17625,7 +17612,7 @@
       <c r="L178" s="35"/>
       <c r="M178" s="47">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O178" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19121,7 +19108,7 @@
       </c>
       <c r="D200" s="32">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200" s="32">
         <f t="shared" si="6"/>
@@ -19129,11 +19116,11 @@
       </c>
       <c r="F200" s="32">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G200" s="32">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H200" s="32">
         <f t="shared" si="6"/>
@@ -19157,7 +19144,7 @@
       </c>
       <c r="M200" s="47">
         <f>SUM(B200:L200)</f>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O200" t="str">
         <f t="shared" ca="1" si="5"/>

--- a/16年暑期课表.xlsx
+++ b/16年暑期课表.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="216">
   <si>
     <t>需要教室数</t>
   </si>
@@ -2330,7 +2330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3056,6 +3056,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="217">
@@ -4901,8 +4904,8 @@
   </sheetPr>
   <dimension ref="A1:Z258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14074,9 +14077,7 @@
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="156"/>
-      <c r="E127" s="201" t="s">
-        <v>102</v>
-      </c>
+      <c r="E127" s="242"/>
       <c r="F127" s="139"/>
       <c r="G127" s="146"/>
       <c r="H127" s="146"/>
@@ -14086,7 +14087,7 @@
       <c r="L127" s="35"/>
       <c r="M127" s="47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O127" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15980,9 +15981,7 @@
       </c>
       <c r="C154" s="59"/>
       <c r="D154" s="59"/>
-      <c r="E154" s="201" t="s">
-        <v>102</v>
-      </c>
+      <c r="E154" s="242"/>
       <c r="F154" s="218" t="s">
         <v>95</v>
       </c>
@@ -15996,7 +15995,7 @@
       <c r="L154" s="35"/>
       <c r="M154" s="47">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O154" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -19112,7 +19111,7 @@
       </c>
       <c r="E200" s="32">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F200" s="32">
         <f t="shared" si="6"/>
@@ -19144,7 +19143,7 @@
       </c>
       <c r="M200" s="47">
         <f>SUM(B200:L200)</f>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O200" t="str">
         <f t="shared" ca="1" si="5"/>
